--- a/subsetting_results/subsetting-chess-snails-Native-gpt4o.xlsx
+++ b/subsetting_results/subsetting-chess-snails-Native-gpt4o.xlsx
@@ -559,7 +559,7 @@
         <v>29.22348719998263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1936469</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>38.60608329996467</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1928767</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>24.97183609998319</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1925965</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>28.27109579998069</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1927747</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>28.23576459998731</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1928765</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>30.16795200004708</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1929754</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>34.02543010003865</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>967500</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>30.99802639998961</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>968626</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>27.41357269999571</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>965122</v>
       </c>
       <c r="F10" t="n">
         <v>0.8</v>
@@ -1279,7 +1279,7 @@
         <v>32.89658010005951</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>968871</v>
       </c>
       <c r="F11" t="n">
         <v>0.625</v>
@@ -1359,7 +1359,7 @@
         <v>48.87115670007188</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>969122</v>
       </c>
       <c r="F12" t="n">
         <v>0.75</v>
@@ -1439,7 +1439,7 @@
         <v>32.80081709998194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>964082</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>39.96331639995333</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>965587</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>34.60976259992458</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>965633</v>
       </c>
       <c r="F15" t="n">
         <v>0.75</v>
@@ -1679,7 +1679,7 @@
         <v>32.03661119996104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>963680</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>33.57681580004282</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>963308</v>
       </c>
       <c r="F17" t="n">
         <v>0.4444444444444444</v>
@@ -1839,7 +1839,7 @@
         <v>30.97745740006212</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>966704</v>
       </c>
       <c r="F18" t="n">
         <v>0.6153846153846154</v>
@@ -1919,7 +1919,7 @@
         <v>36.41988499998115</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>967224</v>
       </c>
       <c r="F19" t="n">
         <v>0.6666666666666666</v>
@@ -1999,7 +1999,7 @@
         <v>28.54444480000529</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>964984</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>34.74986320000608</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>971146</v>
       </c>
       <c r="F21" t="n">
         <v>0.3333333333333333</v>
@@ -2159,7 +2159,7 @@
         <v>45.9211181999417</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>964162</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>36.81987140001729</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>964674</v>
       </c>
       <c r="F23" t="n">
         <v>0.75</v>
@@ -2319,7 +2319,7 @@
         <v>30.98569469992071</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>967405</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>40.65613819996361</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>967774</v>
       </c>
       <c r="F25" t="n">
         <v>0.7142857142857143</v>
@@ -2479,7 +2479,7 @@
         <v>31.23192469996866</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>969126</v>
       </c>
       <c r="F26" t="n">
         <v>0.5454545454545454</v>
@@ -2559,7 +2559,7 @@
         <v>60.32627610000782</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>967579</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>35.87470389995724</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>968158</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>42.23448950005695</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>973827</v>
       </c>
       <c r="F29" t="n">
         <v>0.7692307692307693</v>
@@ -2799,7 +2799,7 @@
         <v>35.50456050003413</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>966909</v>
       </c>
       <c r="F30" t="n">
         <v>0.2222222222222222</v>
@@ -2879,7 +2879,7 @@
         <v>32.02376039989758</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>968606</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>30.62022450007498</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>968261</v>
       </c>
       <c r="F32" t="n">
         <v>0.5555555555555556</v>
@@ -3039,7 +3039,7 @@
         <v>32.1909068999812</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>965897</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>31.57516129990108</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>963839</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>29.07267319993116</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>964787</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -3279,7 +3279,7 @@
         <v>29.61606210004538</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>963163</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>28.38798589992803</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>966189</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>33.21621350001078</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>965374</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -3519,7 +3519,7 @@
         <v>28.47281810001004</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>965320</v>
       </c>
       <c r="F39" t="n">
         <v>0.6</v>
@@ -3599,7 +3599,7 @@
         <v>28.93070780008566</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>968390</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -3679,7 +3679,7 @@
         <v>34.63407310005277</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>969632</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -3759,7 +3759,7 @@
         <v>31.3888001999585</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>759743</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>34.77060090005398</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>758569</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>38.42395800002851</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>760328</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>27.96656869992148</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>756023</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>28.97447160002775</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>756971</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>27.43602179992013</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>757646</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -4239,7 +4239,7 @@
         <v>46.291490899981</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>761042</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>35.66169109998737</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>762120</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>37.24682300002314</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>760720</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>31.20602569996845</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>757789</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -4559,7 +4559,7 @@
         <v>31.05121000006329</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>757939</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>30.81941669993103</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>759777</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>35.98205780005082</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>759012</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>33.53649870003574</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>759130</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>29.02285930002108</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>756322</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v>27.17433199996594</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>756139</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -5039,7 +5039,7 @@
         <v>28.19210139999632</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>758505</v>
       </c>
       <c r="F58" t="n">
         <v>0.8333333333333334</v>
@@ -5119,7 +5119,7 @@
         <v>49.66828000009991</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>758028</v>
       </c>
       <c r="F59" t="n">
         <v>0.5</v>
@@ -5199,7 +5199,7 @@
         <v>29.79483799997251</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>758821</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>28.73596489999909</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>759587</v>
       </c>
       <c r="F61" t="n">
         <v>0.75</v>
@@ -5359,7 +5359,7 @@
         <v>34.66122940008063</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>757899</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -5439,7 +5439,7 @@
         <v>29.14542119996622</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>759294</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
         <v>51.66315270005725</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>756523</v>
       </c>
       <c r="F64" t="n">
         <v>0.8888888888888888</v>
@@ -5599,7 +5599,7 @@
         <v>42.96088280004915</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>759760</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -5679,7 +5679,7 @@
         <v>38.51725709997118</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>760804</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>27.92232799995691</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>757589</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -5839,7 +5839,7 @@
         <v>32.76642179989722</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>757292</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>36.49154050007928</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>756471</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -5999,7 +5999,7 @@
         <v>33.23769300000276</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>762139</v>
       </c>
       <c r="F70" t="n">
         <v>0.7222222222222222</v>
@@ -6079,7 +6079,7 @@
         <v>34.48700289998669</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>758419</v>
       </c>
       <c r="F71" t="n">
         <v>0.6</v>
@@ -6159,7 +6159,7 @@
         <v>30.552786400076</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>757453</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>30.32311280001886</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>758248</v>
       </c>
       <c r="F73" t="n">
         <v>0.8</v>
@@ -6319,7 +6319,7 @@
         <v>39.23357549996581</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>762655</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>30.73197429999709</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>758038</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -6479,7 +6479,7 @@
         <v>23.8772904999787</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>757466</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -6559,7 +6559,7 @@
         <v>32.23456740006804</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>758188</v>
       </c>
       <c r="F77" t="n">
         <v>0.8</v>
@@ -6639,7 +6639,7 @@
         <v>30.81656319997273</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>757417</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -6719,7 +6719,7 @@
         <v>34.82757399999537</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>760632</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -6799,7 +6799,7 @@
         <v>34.12378969998099</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>758080</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -6879,7 +6879,7 @@
         <v>40.19565439992584</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>758178</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>32.78104560007341</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>281283</v>
       </c>
       <c r="F82" t="n">
         <v>0.75</v>
@@ -7039,7 +7039,7 @@
         <v>28.81734969990794</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>281153</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>31.26216059993021</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>282535</v>
       </c>
       <c r="F84" t="n">
         <v>0.8333333333333334</v>
@@ -7199,7 +7199,7 @@
         <v>29.84562380006537</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>281769</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>32.31241320003755</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>282564</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>27.55329380009789</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>281637</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -7439,7 +7439,7 @@
         <v>28.87458569998853</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>281468</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -7519,7 +7519,7 @@
         <v>24.52106800000183</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>281066</v>
       </c>
       <c r="F89" t="n">
         <v>0.6666666666666666</v>
@@ -7599,7 +7599,7 @@
         <v>30.6090591000393</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>281465</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -7679,7 +7679,7 @@
         <v>25.35204419994261</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>281508</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -7759,7 +7759,7 @@
         <v>25.30250630003866</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>281604</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -7839,7 +7839,7 @@
         <v>28.85783420002554</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>281729</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>27.79118790000211</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>281152</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -7999,7 +7999,7 @@
         <v>32.35344750003424</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>283718</v>
       </c>
       <c r="F95" t="n">
         <v>0.8</v>
@@ -8079,7 +8079,7 @@
         <v>34.44675889995415</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>284029</v>
       </c>
       <c r="F96" t="n">
         <v>0.9090909090909091</v>
@@ -8159,7 +8159,7 @@
         <v>24.98881680006161</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>281189</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -8239,7 +8239,7 @@
         <v>30.84691930003464</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>281541</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -8319,7 +8319,7 @@
         <v>32.08616810000967</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>281883</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -8399,7 +8399,7 @@
         <v>32.78905420005322</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>282271</v>
       </c>
       <c r="F100" t="n">
         <v>0.5</v>
@@ -8479,7 +8479,7 @@
         <v>31.24506149999797</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>282775</v>
       </c>
       <c r="F101" t="n">
         <v>0.8</v>
@@ -8559,7 +8559,7 @@
         <v>35.51120690000243</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>282269</v>
       </c>
       <c r="F102" t="n">
         <v>0.4</v>
@@ -8639,7 +8639,7 @@
         <v>34.6843455999624</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>282334</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -8719,7 +8719,7 @@
         <v>27.0452990999911</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>280947</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -8799,7 +8799,7 @@
         <v>26.51812499994412</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>281834</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>30.1062584000174</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>281641</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>29.05175319989212</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>281630</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>30.01004339999054</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>281610</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -9119,7 +9119,7 @@
         <v>24.94651800009888</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>282080</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>28.3936732999282</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>281015</v>
       </c>
       <c r="F110" t="n">
         <v>0.4</v>
@@ -9279,7 +9279,7 @@
         <v>35.94503469998017</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>282886</v>
       </c>
       <c r="F111" t="n">
         <v>0.8888888888888888</v>
@@ -9359,7 +9359,7 @@
         <v>29.41305229999125</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>281494</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -9439,7 +9439,7 @@
         <v>29.23434939992148</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>281905</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>28.87443530000746</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>282049</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>41.13244200008921</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>280939</v>
       </c>
       <c r="F115" t="n">
         <v>0.75</v>
@@ -9679,7 +9679,7 @@
         <v>28.54587519995403</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>281164</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -9759,7 +9759,7 @@
         <v>28.40277769998647</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>282020</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>32.04476219997741</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>282866</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -9919,7 +9919,7 @@
         <v>33.71765899995808</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>282263</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>28.47784900001716</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>282255</v>
       </c>
       <c r="F120" t="n">
         <v>0.8333333333333334</v>
@@ -10079,7 +10079,7 @@
         <v>21.53765509999357</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>280109</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -10159,7 +10159,7 @@
         <v>44.21463269996457</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>621362</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -10239,7 +10239,7 @@
         <v>41.97285279992502</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>621358</v>
       </c>
       <c r="F123" t="n">
         <v>0.5</v>
@@ -10319,7 +10319,7 @@
         <v>27.05364609998651</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>617427</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -10399,7 +10399,7 @@
         <v>32.5460036000004</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>618962</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -10479,7 +10479,7 @@
         <v>29.50744409998879</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>619986</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -10559,7 +10559,7 @@
         <v>31.27771779999603</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>623595</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -10639,7 +10639,7 @@
         <v>29.24286040000152</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>619226</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -10719,7 +10719,7 @@
         <v>36.94877589994576</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>624054</v>
       </c>
       <c r="F129" t="n">
         <v>0.9230769230769231</v>
@@ -10799,7 +10799,7 @@
         <v>27.74605740001425</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>619484</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -10879,7 +10879,7 @@
         <v>34.95821409998462</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>620860</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -10959,7 +10959,7 @@
         <v>34.6343937999336</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>620949</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -11039,7 +11039,7 @@
         <v>35.82410920003895</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>620288</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -11119,7 +11119,7 @@
         <v>35.44444089999888</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>623436</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -11199,7 +11199,7 @@
         <v>30.37022479996085</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>622228</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -11279,7 +11279,7 @@
         <v>34.08653009997215</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>622476</v>
       </c>
       <c r="F136" t="n">
         <v>0.8571428571428571</v>
@@ -11359,7 +11359,7 @@
         <v>33.68359519995283</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>617780</v>
       </c>
       <c r="F137" t="n">
         <v>0.5</v>
@@ -11439,7 +11439,7 @@
         <v>34.40247490000911</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>617865</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -11519,7 +11519,7 @@
         <v>34.73922149999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>619718</v>
       </c>
       <c r="F139" t="n">
         <v>0.75</v>
@@ -11599,7 +11599,7 @@
         <v>29.99157960002776</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>618571</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -11679,7 +11679,7 @@
         <v>34.41643390001263</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>619651</v>
       </c>
       <c r="F141" t="n">
         <v>0.375</v>
@@ -11759,7 +11759,7 @@
         <v>26.05974489997607</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>619743</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>30.23407679994125</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>621826</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         <v>32.63103320007212</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>620193</v>
       </c>
       <c r="F144" t="n">
         <v>0.6666666666666666</v>
@@ -11999,7 +11999,7 @@
         <v>41.43269539996982</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>637028</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -12079,7 +12079,7 @@
         <v>34.35643589997198</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>619889</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -12159,7 +12159,7 @@
         <v>27.41940779995639</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>619792</v>
       </c>
       <c r="F147" t="n">
         <v>0.8333333333333334</v>
@@ -12239,7 +12239,7 @@
         <v>36.1328182000434</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>624307</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -12319,7 +12319,7 @@
         <v>49.81280200008769</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>639179</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -12399,7 +12399,7 @@
         <v>36.99210979999043</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>623204</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -12479,7 +12479,7 @@
         <v>36.74877890001517</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>623552</v>
       </c>
       <c r="F151" t="n">
         <v>0.75</v>
@@ -12559,7 +12559,7 @@
         <v>26.47654389997479</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>618621</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -12639,7 +12639,7 @@
         <v>32.18438099999912</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>619374</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -12719,7 +12719,7 @@
         <v>33.19426380004734</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>621731</v>
       </c>
       <c r="F154" t="n">
         <v>0.8333333333333334</v>
@@ -12799,7 +12799,7 @@
         <v>39.05999610002618</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>620980</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>25.60179159999825</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>619152</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -12959,7 +12959,7 @@
         <v>29.60829220002051</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>620307</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -13039,7 +13039,7 @@
         <v>33.8573237999808</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>624526</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -13119,7 +13119,7 @@
         <v>34.71701719996054</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>619081</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -13199,7 +13199,7 @@
         <v>41.01587660005316</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>624515</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -13279,7 +13279,7 @@
         <v>35.51397219998762</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>623116</v>
       </c>
       <c r="F161" t="n">
         <v>0.9</v>
@@ -13359,7 +13359,7 @@
         <v>29.32023730000947</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>748448</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -13439,7 +13439,7 @@
         <v>28.0857682999922</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>750431</v>
       </c>
       <c r="F163" t="n">
         <v>0.6666666666666666</v>
@@ -13519,7 +13519,7 @@
         <v>32.52762599999551</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>748522</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>31.21007049991749</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>750266</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -13679,7 +13679,7 @@
         <v>29.02831510000397</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>754102</v>
       </c>
       <c r="F166" t="n">
         <v>0.75</v>
@@ -13759,7 +13759,7 @@
         <v>109.6751088000601</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>751719</v>
       </c>
       <c r="F167" t="n">
         <v>0.6666666666666666</v>
@@ -13839,7 +13839,7 @@
         <v>36.74155989999417</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>752075</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -13919,7 +13919,7 @@
         <v>32.19297610002104</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>748629</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>32.0848303999519</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>749877</v>
       </c>
       <c r="F170" t="n">
         <v>0.6</v>
@@ -14079,7 +14079,7 @@
         <v>46.71434730000328</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>751051</v>
       </c>
       <c r="F171" t="n">
         <v>0.8</v>
@@ -14159,7 +14159,7 @@
         <v>29.49353380000684</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>752066</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>35.62966590002179</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>751208</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -14319,7 +14319,7 @@
         <v>39.74109950009733</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>750060</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -14399,7 +14399,7 @@
         <v>53.46220149996225</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>775506</v>
       </c>
       <c r="F175" t="n">
         <v>0.8</v>
@@ -14479,7 +14479,7 @@
         <v>28.17838089994621</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>749484</v>
       </c>
       <c r="F176" t="n">
         <v>0.8</v>
@@ -14559,7 +14559,7 @@
         <v>30.02249910007231</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>752340</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -14639,7 +14639,7 @@
         <v>34.94034989993088</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>753723</v>
       </c>
       <c r="F178" t="n">
         <v>0.9</v>
@@ -14719,7 +14719,7 @@
         <v>27.96893400000408</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>751049</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -14799,7 +14799,7 @@
         <v>30.90575520007405</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>749661</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -14879,7 +14879,7 @@
         <v>29.81774760002736</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>747741</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -14959,7 +14959,7 @@
         <v>35.1919721000595</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>752182</v>
       </c>
       <c r="F182" t="n">
         <v>0.8571428571428571</v>
@@ -15039,7 +15039,7 @@
         <v>37.1852486000862</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>751728</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -15119,7 +15119,7 @@
         <v>29.33707759995013</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>753043</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -15199,7 +15199,7 @@
         <v>30.9687297999626</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>754266</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -15279,7 +15279,7 @@
         <v>26.17172730003949</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>749467</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -15359,7 +15359,7 @@
         <v>30.05938270001207</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>750852</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -15439,7 +15439,7 @@
         <v>36.51998230000027</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>752235</v>
       </c>
       <c r="F188" t="n">
         <v>0.9</v>
@@ -15519,7 +15519,7 @@
         <v>25.5819587999722</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>748706</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>35.62942020001356</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>751733</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -15679,7 +15679,7 @@
         <v>25.74217010010034</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>748178</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -15759,7 +15759,7 @@
         <v>32.92918360000476</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>751477</v>
       </c>
       <c r="F192" t="n">
         <v>0.8333333333333334</v>
@@ -15839,7 +15839,7 @@
         <v>33.48064820002764</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>752002</v>
       </c>
       <c r="F193" t="n">
         <v>0.3333333333333333</v>
@@ -15919,7 +15919,7 @@
         <v>29.01467349997256</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>750791</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -15999,7 +15999,7 @@
         <v>30.31028249999508</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>751618</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -16079,7 +16079,7 @@
         <v>29.53252949996386</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>748227</v>
       </c>
       <c r="F196" t="n">
         <v>0.8333333333333334</v>
@@ -16159,7 +16159,7 @@
         <v>30.36695960001089</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>751471</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -16239,7 +16239,7 @@
         <v>37.2886311999755</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>752004</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -16319,7 +16319,7 @@
         <v>34.81236169999465</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>752036</v>
       </c>
       <c r="F199" t="n">
         <v>0.8333333333333334</v>
@@ -16399,7 +16399,7 @@
         <v>28.8719174999278</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>751253</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>26.34132230002433</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>749403</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -16559,7 +16559,7 @@
         <v>64.01033549988642</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>4555021</v>
       </c>
       <c r="F202" t="n">
         <v>0.5</v>
@@ -16639,7 +16639,7 @@
         <v>69.06357909995131</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>4555030</v>
       </c>
       <c r="F203" t="n">
         <v>0.5</v>
@@ -16719,7 +16719,7 @@
         <v>72.4510314000072</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>4554722</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -16799,7 +16799,7 @@
         <v>50.09784070006572</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>4562249</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -16879,7 +16879,7 @@
         <v>47.17214830010198</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>4557988</v>
       </c>
       <c r="F206" t="n">
         <v>0.5</v>
@@ -16959,7 +16959,7 @@
         <v>64.06786979991011</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>4570852</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -17039,7 +17039,7 @@
         <v>52.10852670005988</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>4565999</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
@@ -17119,7 +17119,7 @@
         <v>58.68880370003171</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>4571789</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -17199,7 +17199,7 @@
         <v>56.02790970006026</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>4587143</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -17279,7 +17279,7 @@
         <v>52.26329710008577</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>4584753</v>
       </c>
       <c r="F211" t="n">
         <v>0.2727272727272727</v>
@@ -17359,7 +17359,7 @@
         <v>45.96482669992838</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>4554772</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -17439,7 +17439,7 @@
         <v>50.76596470002551</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>4554346</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -17519,7 +17519,7 @@
         <v>56.02256020007189</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>4596312</v>
       </c>
       <c r="F214" t="n">
         <v>0.6666666666666666</v>
@@ -17599,7 +17599,7 @@
         <v>57.07815730001312</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>4566664</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>55.22959360003006</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>4611651</v>
       </c>
       <c r="F216" t="n">
         <v>0.3333333333333333</v>
@@ -17759,7 +17759,7 @@
         <v>58.41414469992742</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>4597255</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -17839,7 +17839,7 @@
         <v>54.26534449995961</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>4586316</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -17919,7 +17919,7 @@
         <v>47.07598979992326</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>4559356</v>
       </c>
       <c r="F219" t="n">
         <v>0.75</v>
@@ -17999,7 +17999,7 @@
         <v>63.87005150003824</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>4560217</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -18079,7 +18079,7 @@
         <v>103.6722589000128</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>4589728</v>
       </c>
       <c r="F221" t="n">
         <v>1</v>
@@ -18159,7 +18159,7 @@
         <v>73.05740839999635</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>4575057</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -18239,7 +18239,7 @@
         <v>102.0844969999744</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>4556255</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -18319,7 +18319,7 @@
         <v>82.09539439994842</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>4553473</v>
       </c>
       <c r="F224" t="n">
         <v>0.5</v>
@@ -18399,7 +18399,7 @@
         <v>58.17826039995998</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>4576627</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>63.35232279996853</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>4575462</v>
       </c>
       <c r="F226" t="n">
         <v>0.6666666666666666</v>
@@ -18559,7 +18559,7 @@
         <v>57.48802149994299</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>4577766</v>
       </c>
       <c r="F227" t="n">
         <v>0.3333333333333333</v>
@@ -18639,7 +18639,7 @@
         <v>52.3356088999426</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>4573024</v>
       </c>
       <c r="F228" t="n">
         <v>0.875</v>
@@ -18719,7 +18719,7 @@
         <v>68.29420789994765</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>4550015</v>
       </c>
       <c r="F229" t="n">
         <v>0.75</v>
@@ -18799,7 +18799,7 @@
         <v>138.4979895999422</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>4586506</v>
       </c>
       <c r="F230" t="n">
         <v>1</v>
@@ -18879,7 +18879,7 @@
         <v>60.7445510000689</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>4588726</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -18959,7 +18959,7 @@
         <v>62.93134110001847</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>4593921</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>61.11792210000567</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>4595051</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -19119,7 +19119,7 @@
         <v>77.76221790001728</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>4658449</v>
       </c>
       <c r="F234" t="n">
         <v>0.2857142857142857</v>
@@ -19199,7 +19199,7 @@
         <v>71.94467850006185</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>4563824</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
@@ -19279,7 +19279,7 @@
         <v>72.01234920008574</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>4568919</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -19359,7 +19359,7 @@
         <v>58.48588820011355</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>4554958</v>
       </c>
       <c r="F237" t="n">
         <v>0.6666666666666666</v>
@@ -19439,7 +19439,7 @@
         <v>102.7988844000502</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>4558084</v>
       </c>
       <c r="F238" t="n">
         <v>1</v>
@@ -19519,7 +19519,7 @@
         <v>49.32462189998478</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>4570137</v>
       </c>
       <c r="F239" t="n">
         <v>1</v>
@@ -19599,7 +19599,7 @@
         <v>47.70011960004922</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>4555954</v>
       </c>
       <c r="F240" t="n">
         <v>1</v>
@@ -19679,7 +19679,7 @@
         <v>58.45446850010194</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>4571227</v>
       </c>
       <c r="F241" t="n">
         <v>0.5</v>
@@ -19759,7 +19759,7 @@
         <v>45.84415010001976</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>4561700</v>
       </c>
       <c r="F242" t="n">
         <v>0.5</v>
@@ -19839,7 +19839,7 @@
         <v>50.75901959999464</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>4566964</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -19919,7 +19919,7 @@
         <v>49.78275040001608</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>4571872</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -19999,7 +19999,7 @@
         <v>49.99801999994088</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>4558488</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
@@ -20079,7 +20079,7 @@
         <v>49.93376419995911</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>4568350</v>
       </c>
       <c r="F246" t="n">
         <v>0.5</v>
@@ -20159,7 +20159,7 @@
         <v>55.40537629998289</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>4561488</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -20239,7 +20239,7 @@
         <v>116.9106796999695</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>9187092</v>
       </c>
       <c r="F248" t="n">
         <v>0.6666666666666666</v>
@@ -20319,7 +20319,7 @@
         <v>50.85302300006151</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>4559746</v>
       </c>
       <c r="F249" t="n">
         <v>1</v>
@@ -20399,7 +20399,7 @@
         <v>56.33874240005389</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>4588821</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -20479,7 +20479,7 @@
         <v>61.77177460002713</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>4611381</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -20559,7 +20559,7 @@
         <v>96.01418540009763</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>4561822</v>
       </c>
       <c r="F252" t="n">
         <v>1</v>
@@ -20639,7 +20639,7 @@
         <v>73.82941730006132</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>4563006</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -20719,7 +20719,7 @@
         <v>47.00780690007377</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>4556922</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -20799,7 +20799,7 @@
         <v>50.60992519999854</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>4565742</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -20879,7 +20879,7 @@
         <v>55.18194119993132</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>4586091</v>
       </c>
       <c r="F256" t="n">
         <v>1</v>
@@ -20959,7 +20959,7 @@
         <v>62.06381960003637</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>4575942</v>
       </c>
       <c r="F257" t="n">
         <v>1</v>
@@ -21039,7 +21039,7 @@
         <v>62.37813849991653</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>4601110</v>
       </c>
       <c r="F258" t="n">
         <v>1</v>
@@ -21119,7 +21119,7 @@
         <v>93.58968430000823</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>4594487</v>
       </c>
       <c r="F259" t="n">
         <v>1</v>
@@ -21199,7 +21199,7 @@
         <v>56.89078020001762</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>4627605</v>
       </c>
       <c r="F260" t="n">
         <v>1</v>
@@ -21279,7 +21279,7 @@
         <v>59.77822890004609</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>4583313</v>
       </c>
       <c r="F261" t="n">
         <v>1</v>
@@ -21359,7 +21359,7 @@
         <v>61.461737500038</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>9175247</v>
       </c>
       <c r="F262" t="n">
         <v>1</v>
@@ -21439,7 +21439,7 @@
         <v>58.49928630003706</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>4570991</v>
       </c>
       <c r="F263" t="n">
         <v>0.25</v>
@@ -21519,7 +21519,7 @@
         <v>56.87937780003995</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>4579799</v>
       </c>
       <c r="F264" t="n">
         <v>0.6666666666666666</v>
@@ -21599,7 +21599,7 @@
         <v>73.74093939992599</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>4585046</v>
       </c>
       <c r="F265" t="n">
         <v>1</v>
@@ -21679,7 +21679,7 @@
         <v>60.38235129998066</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>4556224</v>
       </c>
       <c r="F266" t="n">
         <v>0.5</v>
@@ -21759,7 +21759,7 @@
         <v>49.06152099999599</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>4568486</v>
       </c>
       <c r="F267" t="n">
         <v>0.5</v>
@@ -21839,7 +21839,7 @@
         <v>56.89967770001385</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>4595711</v>
       </c>
       <c r="F268" t="n">
         <v>1</v>
@@ -21919,7 +21919,7 @@
         <v>87.98951889993623</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>4601774</v>
       </c>
       <c r="F269" t="n">
         <v>0.5</v>
@@ -21999,7 +21999,7 @@
         <v>60.94568599993363</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>4600079</v>
       </c>
       <c r="F270" t="n">
         <v>0.4</v>
@@ -22079,7 +22079,7 @@
         <v>60.73527419997845</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>4596008</v>
       </c>
       <c r="F271" t="n">
         <v>1</v>
@@ -22159,7 +22159,7 @@
         <v>54.23792260000482</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>4591033</v>
       </c>
       <c r="F272" t="n">
         <v>0.8333333333333334</v>
@@ -22239,7 +22239,7 @@
         <v>57.83596029994078</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>4614374</v>
       </c>
       <c r="F273" t="n">
         <v>0.6</v>
@@ -22319,7 +22319,7 @@
         <v>50.11489920003805</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>4573018</v>
       </c>
       <c r="F274" t="n">
         <v>0.75</v>
@@ -22399,7 +22399,7 @@
         <v>56.32400970009621</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>4589884</v>
       </c>
       <c r="F275" t="n">
         <v>1</v>
@@ -22479,7 +22479,7 @@
         <v>106.1872694999911</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>9122187</v>
       </c>
       <c r="F276" t="n">
         <v>0.4285714285714285</v>
@@ -22559,7 +22559,7 @@
         <v>54.02301340003032</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>9117079</v>
       </c>
       <c r="F277" t="n">
         <v>0.5555555555555556</v>
@@ -22639,7 +22639,7 @@
         <v>47.91878119995818</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>9126403</v>
       </c>
       <c r="F278" t="n">
         <v>1</v>
@@ -22719,7 +22719,7 @@
         <v>56.92887259996496</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>9633266</v>
       </c>
       <c r="F279" t="n">
         <v>0.6666666666666666</v>
@@ -22799,7 +22799,7 @@
         <v>73.44265629991423</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>4593722</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -22879,7 +22879,7 @@
         <v>50.49898100004066</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>4557418</v>
       </c>
       <c r="F281" t="n">
         <v>0.6</v>
@@ -22959,7 +22959,7 @@
         <v>92.67319899995346</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>4551896</v>
       </c>
       <c r="F282" t="n">
         <v>0.6666666666666666</v>
@@ -23039,7 +23039,7 @@
         <v>44.53680350002833</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>4565393</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -23119,7 +23119,7 @@
         <v>62.72354080004152</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>4575513</v>
       </c>
       <c r="F284" t="n">
         <v>0.75</v>
@@ -23199,7 +23199,7 @@
         <v>53.25058679992799</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>4572481</v>
       </c>
       <c r="F285" t="n">
         <v>1</v>
@@ -23279,7 +23279,7 @@
         <v>45.38502809999045</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>4567036</v>
       </c>
       <c r="F286" t="n">
         <v>0.6666666666666666</v>
@@ -23359,7 +23359,7 @@
         <v>46.55752839997876</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>4569719</v>
       </c>
       <c r="F287" t="n">
         <v>0.3</v>
@@ -23439,7 +23439,7 @@
         <v>50.93227130000014</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>4584229</v>
       </c>
       <c r="F288" t="n">
         <v>0.4615384615384616</v>
@@ -23519,7 +23519,7 @@
         <v>45.76925150002353</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>4558110</v>
       </c>
       <c r="F289" t="n">
         <v>0.75</v>
@@ -23599,7 +23599,7 @@
         <v>45.43896850000601</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>4568011</v>
       </c>
       <c r="F290" t="n">
         <v>0.6666666666666666</v>
@@ -23679,7 +23679,7 @@
         <v>44.69218670006376</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>4573912</v>
       </c>
       <c r="F291" t="n">
         <v>0.75</v>
@@ -23759,7 +23759,7 @@
         <v>99.7311425000662</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>4617430</v>
       </c>
       <c r="F292" t="n">
         <v>0.75</v>
@@ -23839,7 +23839,7 @@
         <v>103.7974405999994</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>4585683</v>
       </c>
       <c r="F293" t="n">
         <v>1</v>
@@ -23919,7 +23919,7 @@
         <v>102.9408037000103</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>4591365</v>
       </c>
       <c r="F294" t="n">
         <v>0.6428571428571429</v>
@@ -23999,7 +23999,7 @@
         <v>111.2769088000059</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>4588194</v>
       </c>
       <c r="F295" t="n">
         <v>0.6923076923076923</v>
@@ -24079,7 +24079,7 @@
         <v>99.13282850000542</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>4554778</v>
       </c>
       <c r="F296" t="n">
         <v>1</v>
@@ -24159,7 +24159,7 @@
         <v>95.35141100001056</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>4558103</v>
       </c>
       <c r="F297" t="n">
         <v>0.5</v>
@@ -24239,7 +24239,7 @@
         <v>103.9857347999932</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>4575804</v>
       </c>
       <c r="F298" t="n">
         <v>0.375</v>
@@ -24319,7 +24319,7 @@
         <v>105.7252485998906</v>
       </c>
       <c r="E299" t="n">
-        <v>0</v>
+        <v>4586653</v>
       </c>
       <c r="F299" t="n">
         <v>0.9166666666666666</v>
@@ -24399,7 +24399,7 @@
         <v>107.4000434000045</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>4584598</v>
       </c>
       <c r="F300" t="n">
         <v>0.375</v>
@@ -24479,7 +24479,7 @@
         <v>103.1541223999811</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>4595354</v>
       </c>
       <c r="F301" t="n">
         <v>0.75</v>
@@ -24559,7 +24559,7 @@
         <v>142.5418609000044</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>1676444</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -24639,7 +24639,7 @@
         <v>51.99675200006459</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>1672378</v>
       </c>
       <c r="F303" t="n">
         <v>0.8333333333333334</v>
@@ -24719,7 +24719,7 @@
         <v>50.06366059998982</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>1667988</v>
       </c>
       <c r="F304" t="n">
         <v>1</v>
@@ -24799,7 +24799,7 @@
         <v>52.06516290002037</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>1672642</v>
       </c>
       <c r="F305" t="n">
         <v>1</v>
@@ -24879,7 +24879,7 @@
         <v>53.49238399998285</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>1678909</v>
       </c>
       <c r="F306" t="n">
         <v>0.8571428571428571</v>
@@ -24959,7 +24959,7 @@
         <v>49.33268270001281</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>1670387</v>
       </c>
       <c r="F307" t="n">
         <v>0.7857142857142857</v>
@@ -25039,7 +25039,7 @@
         <v>51.21489249996375</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>1670640</v>
       </c>
       <c r="F308" t="n">
         <v>1</v>
@@ -25119,7 +25119,7 @@
         <v>60.37563579995185</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>1683538</v>
       </c>
       <c r="F309" t="n">
         <v>1</v>
@@ -25199,7 +25199,7 @@
         <v>49.0841478999937</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>1666389</v>
       </c>
       <c r="F310" t="n">
         <v>0.7142857142857143</v>
@@ -25279,7 +25279,7 @@
         <v>55.74774609995075</v>
       </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>1668217</v>
       </c>
       <c r="F311" t="n">
         <v>0.8</v>
@@ -25359,7 +25359,7 @@
         <v>51.72289779991843</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>1669023</v>
       </c>
       <c r="F312" t="n">
         <v>0.8333333333333334</v>
@@ -25439,7 +25439,7 @@
         <v>54.10562679998111</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>1670533</v>
       </c>
       <c r="F313" t="n">
         <v>0.625</v>
@@ -25519,7 +25519,7 @@
         <v>57.89882660005242</v>
       </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>1668569</v>
       </c>
       <c r="F314" t="n">
         <v>0.6666666666666666</v>
@@ -25599,7 +25599,7 @@
         <v>50.15031310007907</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>1671439</v>
       </c>
       <c r="F315" t="n">
         <v>1</v>
@@ -25679,7 +25679,7 @@
         <v>52.67111780005507</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>1665428</v>
       </c>
       <c r="F316" t="n">
         <v>0.4285714285714285</v>
@@ -25759,7 +25759,7 @@
         <v>143.8650142000988</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>1674310</v>
       </c>
       <c r="F317" t="n">
         <v>0.8571428571428571</v>
@@ -25839,7 +25839,7 @@
         <v>50.67637980007567</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>1669232</v>
       </c>
       <c r="F318" t="n">
         <v>0.5</v>
@@ -25919,7 +25919,7 @@
         <v>53.79260829999112</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>1667841</v>
       </c>
       <c r="F319" t="n">
         <v>1</v>
@@ -25999,7 +25999,7 @@
         <v>61.86383089993615</v>
       </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>1683300</v>
       </c>
       <c r="F320" t="n">
         <v>0.6428571428571429</v>
@@ -26079,7 +26079,7 @@
         <v>49.87838369992096</v>
       </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>1668956</v>
       </c>
       <c r="F321" t="n">
         <v>0.8571428571428571</v>
@@ -26159,7 +26159,7 @@
         <v>48.57794890005607</v>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>1665800</v>
       </c>
       <c r="F322" t="n">
         <v>0.6666666666666666</v>
@@ -26239,7 +26239,7 @@
         <v>48.22828450007364</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1663083</v>
       </c>
       <c r="F323" t="n">
         <v>0.5</v>
@@ -26319,7 +26319,7 @@
         <v>49.50069929996971</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>1667964</v>
       </c>
       <c r="F324" t="n">
         <v>0.5714285714285714</v>
@@ -26399,7 +26399,7 @@
         <v>49.68789689999539</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>1672177</v>
       </c>
       <c r="F325" t="n">
         <v>0.75</v>
@@ -26479,7 +26479,7 @@
         <v>52.6550525999628</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>1676318</v>
       </c>
       <c r="F326" t="n">
         <v>0.7272727272727273</v>
@@ -26559,7 +26559,7 @@
         <v>52.87636029999703</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>1672296</v>
       </c>
       <c r="F327" t="n">
         <v>0.7142857142857143</v>
@@ -26639,7 +26639,7 @@
         <v>37.02152999991085</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>1680547</v>
       </c>
       <c r="F328" t="n">
         <v>0.6666666666666666</v>
@@ -26719,7 +26719,7 @@
         <v>36.23663870000746</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>1675751</v>
       </c>
       <c r="F329" t="n">
         <v>0.8888888888888888</v>
@@ -26799,7 +26799,7 @@
         <v>38.08472139993683</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>1677048</v>
       </c>
       <c r="F330" t="n">
         <v>0.5454545454545454</v>
@@ -26879,7 +26879,7 @@
         <v>32.2362936999416</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>1671905</v>
       </c>
       <c r="F331" t="n">
         <v>0.6666666666666666</v>
@@ -26959,7 +26959,7 @@
         <v>32.99854790000245</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>1678657</v>
       </c>
       <c r="F332" t="n">
         <v>0.8888888888888888</v>
@@ -27039,7 +27039,7 @@
         <v>31.27510219998658</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>1665407</v>
       </c>
       <c r="F333" t="n">
         <v>0.5714285714285714</v>
@@ -27119,7 +27119,7 @@
         <v>57.23341240000445</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>1680996</v>
       </c>
       <c r="F334" t="n">
         <v>0.6666666666666666</v>
@@ -27199,7 +27199,7 @@
         <v>52.31141890003346</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>1670160</v>
       </c>
       <c r="F335" t="n">
         <v>1</v>
@@ -27279,7 +27279,7 @@
         <v>52.04424290009774</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>1669080</v>
       </c>
       <c r="F336" t="n">
         <v>1</v>
@@ -27359,7 +27359,7 @@
         <v>52.55977480008733</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>1674414</v>
       </c>
       <c r="F337" t="n">
         <v>1</v>
@@ -27439,7 +27439,7 @@
         <v>56.38668620004319</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>1674200</v>
       </c>
       <c r="F338" t="n">
         <v>0.7</v>
@@ -27519,7 +27519,7 @@
         <v>59.59052570001222</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>1676526</v>
       </c>
       <c r="F339" t="n">
         <v>0.7272727272727273</v>
@@ -27599,7 +27599,7 @@
         <v>61.68258580006659</v>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>1668068</v>
       </c>
       <c r="F340" t="n">
         <v>1</v>
@@ -27679,7 +27679,7 @@
         <v>60.2881651999196</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>1682431</v>
       </c>
       <c r="F341" t="n">
         <v>0.8333333333333334</v>
@@ -27759,7 +27759,7 @@
         <v>61.63464359997306</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>1687967</v>
       </c>
       <c r="F342" t="n">
         <v>0.6666666666666666</v>
@@ -27839,7 +27839,7 @@
         <v>54.05210530001204</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1680425</v>
       </c>
       <c r="F343" t="n">
         <v>0.625</v>
@@ -27919,7 +27919,7 @@
         <v>56.21710880007595</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>1686946</v>
       </c>
       <c r="F344" t="n">
         <v>0.75</v>
@@ -27999,7 +27999,7 @@
         <v>58.21852599992417</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>1689336</v>
       </c>
       <c r="F345" t="n">
         <v>0.6666666666666666</v>
@@ -28079,7 +28079,7 @@
         <v>52.81378660001792</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>1670232</v>
       </c>
       <c r="F346" t="n">
         <v>1</v>
@@ -28159,7 +28159,7 @@
         <v>33.9233702000929</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>1667791</v>
       </c>
       <c r="F347" t="n">
         <v>0.5</v>
@@ -28239,7 +28239,7 @@
         <v>30.07409310003277</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>1673093</v>
       </c>
       <c r="F348" t="n">
         <v>0.7777777777777778</v>
@@ -28319,7 +28319,7 @@
         <v>27.38108280010056</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>1663001</v>
       </c>
       <c r="F349" t="n">
         <v>1</v>
@@ -28399,7 +28399,7 @@
         <v>33.05646580003668</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>1669628</v>
       </c>
       <c r="F350" t="n">
         <v>1</v>
@@ -28479,7 +28479,7 @@
         <v>28.7813610000303</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>1670826</v>
       </c>
       <c r="F351" t="n">
         <v>0.8333333333333334</v>
@@ -28559,7 +28559,7 @@
         <v>27.42527770006564</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1671481</v>
       </c>
       <c r="F352" t="n">
         <v>1</v>
@@ -28639,7 +28639,7 @@
         <v>32.17526629997883</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>1668509</v>
       </c>
       <c r="F353" t="n">
         <v>0.6666666666666666</v>
@@ -28719,7 +28719,7 @@
         <v>39.84968850004952</v>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>1668311</v>
       </c>
       <c r="F354" t="n">
         <v>1</v>
@@ -28799,7 +28799,7 @@
         <v>29.61869919998571</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>1673991</v>
       </c>
       <c r="F355" t="n">
         <v>1</v>
@@ -28879,7 +28879,7 @@
         <v>34.14172650000546</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1684228</v>
       </c>
       <c r="F356" t="n">
         <v>0.8333333333333334</v>
@@ -28959,7 +28959,7 @@
         <v>27.46754680003505</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>1668795</v>
       </c>
       <c r="F357" t="n">
         <v>0.7777777777777778</v>
@@ -29039,7 +29039,7 @@
         <v>33.14618649997283</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>1669063</v>
       </c>
       <c r="F358" t="n">
         <v>0.8</v>
@@ -29119,7 +29119,7 @@
         <v>28.9374092000071</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>1665306</v>
       </c>
       <c r="F359" t="n">
         <v>0.6666666666666666</v>
@@ -29199,7 +29199,7 @@
         <v>32.92567079991568</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>1679423</v>
       </c>
       <c r="F360" t="n">
         <v>0.5454545454545454</v>
@@ -29279,7 +29279,7 @@
         <v>31.13230410008691</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1680209</v>
       </c>
       <c r="F361" t="n">
         <v>0.9090909090909091</v>
@@ -29359,7 +29359,7 @@
         <v>31.71762699994724</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>1662226</v>
       </c>
       <c r="F362" t="n">
         <v>1</v>
@@ -29439,7 +29439,7 @@
         <v>33.40011279995088</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>1670884</v>
       </c>
       <c r="F363" t="n">
         <v>0.8333333333333334</v>
@@ -29519,7 +29519,7 @@
         <v>32.24232530000154</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>1675079</v>
       </c>
       <c r="F364" t="n">
         <v>0.7</v>
@@ -29599,7 +29599,7 @@
         <v>22.31740739999805</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>768709</v>
       </c>
       <c r="F365" t="n">
         <v>1</v>
@@ -29679,7 +29679,7 @@
         <v>19.49598160001915</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>768656</v>
       </c>
       <c r="F366" t="n">
         <v>1</v>
@@ -29759,7 +29759,7 @@
         <v>19.79638000007253</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>769521</v>
       </c>
       <c r="F367" t="n">
         <v>1</v>
@@ -29839,7 +29839,7 @@
         <v>24.57817209989298</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>770691</v>
       </c>
       <c r="F368" t="n">
         <v>1</v>
@@ -29919,7 +29919,7 @@
         <v>29.2064049000619</v>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>769269</v>
       </c>
       <c r="F369" t="n">
         <v>1</v>
@@ -29999,7 +29999,7 @@
         <v>19.67860710003879</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>769206</v>
       </c>
       <c r="F370" t="n">
         <v>1</v>
@@ -30079,7 +30079,7 @@
         <v>21.14798629994038</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>769707</v>
       </c>
       <c r="F371" t="n">
         <v>1</v>
@@ -30159,7 +30159,7 @@
         <v>40.93163799995091</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>775157</v>
       </c>
       <c r="F372" t="n">
         <v>1</v>
@@ -30239,7 +30239,7 @@
         <v>41.05044839996845</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>770260</v>
       </c>
       <c r="F373" t="n">
         <v>0.6</v>
@@ -30319,7 +30319,7 @@
         <v>38.68370509997476</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>769145</v>
       </c>
       <c r="F374" t="n">
         <v>1</v>
@@ -30399,7 +30399,7 @@
         <v>38.20471089996863</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>770810</v>
       </c>
       <c r="F375" t="n">
         <v>1</v>
@@ -30479,7 +30479,7 @@
         <v>49.2981940000318</v>
       </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>770565</v>
       </c>
       <c r="F376" t="n">
         <v>0.6666666666666666</v>
@@ -30559,7 +30559,7 @@
         <v>39.29012170003261</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>772782</v>
       </c>
       <c r="F377" t="n">
         <v>0.5714285714285714</v>
@@ -30639,7 +30639,7 @@
         <v>46.76399020000827</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>773667</v>
       </c>
       <c r="F378" t="n">
         <v>0.8</v>
@@ -30719,7 +30719,7 @@
         <v>38.48300979996566</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>770113</v>
       </c>
       <c r="F379" t="n">
         <v>1</v>
@@ -30799,7 +30799,7 @@
         <v>44.96213869994972</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>769189</v>
       </c>
       <c r="F380" t="n">
         <v>1</v>
@@ -30879,7 +30879,7 @@
         <v>38.0036769999424</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>771052</v>
       </c>
       <c r="F381" t="n">
         <v>0.5555555555555556</v>
@@ -30959,7 +30959,7 @@
         <v>48.17845580005087</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>771469</v>
       </c>
       <c r="F382" t="n">
         <v>0.7142857142857143</v>
@@ -31039,7 +31039,7 @@
         <v>34.71891699999105</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>769710</v>
       </c>
       <c r="F383" t="n">
         <v>1</v>
@@ -31119,7 +31119,7 @@
         <v>30.52466179989278</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>772805</v>
       </c>
       <c r="F384" t="n">
         <v>0.4285714285714285</v>
@@ -31199,7 +31199,7 @@
         <v>30.48415410006419</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>769056</v>
       </c>
       <c r="F385" t="n">
         <v>0.6</v>
@@ -31279,7 +31279,7 @@
         <v>24.18192950007506</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>769853</v>
       </c>
       <c r="F386" t="n">
         <v>0.6666666666666666</v>
@@ -31359,7 +31359,7 @@
         <v>23.4485709000146</v>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>769824</v>
       </c>
       <c r="F387" t="n">
         <v>1</v>
@@ -31439,7 +31439,7 @@
         <v>23.20955210004468</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>772257</v>
       </c>
       <c r="F388" t="n">
         <v>1</v>
@@ -31519,7 +31519,7 @@
         <v>27.68215030001011</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>774313</v>
       </c>
       <c r="F389" t="n">
         <v>1</v>
@@ -31599,7 +31599,7 @@
         <v>25.79129540000577</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>771040</v>
       </c>
       <c r="F390" t="n">
         <v>0.6</v>
@@ -31679,7 +31679,7 @@
         <v>29.2312707999954</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>769774</v>
       </c>
       <c r="F391" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>22.42029080004431</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>769576</v>
       </c>
       <c r="F392" t="n">
         <v>0.5</v>
@@ -31839,7 +31839,7 @@
         <v>28.90721440000925</v>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>770863</v>
       </c>
       <c r="F393" t="n">
         <v>0.625</v>
@@ -31919,7 +31919,7 @@
         <v>32.48111640010029</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>773978</v>
       </c>
       <c r="F394" t="n">
         <v>0.5833333333333334</v>
@@ -31999,7 +31999,7 @@
         <v>26.55737200006843</v>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>772618</v>
       </c>
       <c r="F395" t="n">
         <v>0.5714285714285714</v>
@@ -32079,7 +32079,7 @@
         <v>27.19612800003961</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>774245</v>
       </c>
       <c r="F396" t="n">
         <v>0.75</v>
@@ -32159,7 +32159,7 @@
         <v>28.9117662999779</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>773593</v>
       </c>
       <c r="F397" t="n">
         <v>1</v>
@@ -32239,7 +32239,7 @@
         <v>23.72389210003894</v>
       </c>
       <c r="E398" t="n">
-        <v>0</v>
+        <v>770450</v>
       </c>
       <c r="F398" t="n">
         <v>0.75</v>
@@ -32319,7 +32319,7 @@
         <v>20.98771860008128</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>771207</v>
       </c>
       <c r="F399" t="n">
         <v>0.5454545454545454</v>
@@ -32399,7 +32399,7 @@
         <v>27.28880109998863</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>772441</v>
       </c>
       <c r="F400" t="n">
         <v>0.4545454545454545</v>
@@ -32479,7 +32479,7 @@
         <v>26.4384635000024</v>
       </c>
       <c r="E401" t="n">
-        <v>0</v>
+        <v>773089</v>
       </c>
       <c r="F401" t="n">
         <v>0.5714285714285714</v>
@@ -32559,7 +32559,7 @@
         <v>22.90152880002279</v>
       </c>
       <c r="E402" t="n">
-        <v>0</v>
+        <v>773721</v>
       </c>
       <c r="F402" t="n">
         <v>0.6666666666666666</v>
@@ -32639,7 +32639,7 @@
         <v>31.02441459998954</v>
       </c>
       <c r="E403" t="n">
-        <v>0</v>
+        <v>782560</v>
       </c>
       <c r="F403" t="n">
         <v>0.9487179487179487</v>
@@ -32719,7 +32719,7 @@
         <v>26.91103700001258</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>771036</v>
       </c>
       <c r="F404" t="n">
         <v>0.4347826086956522</v>

--- a/subsetting_results/subsetting-chess-snails-Native-gpt4o.xlsx
+++ b/subsetting_results/subsetting-chess-snails-Native-gpt4o.xlsx
@@ -845,7 +845,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleMeasurements.LocationID'}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Trap_#'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.TempC', 'tblFieldDataAmphibianCallCounts.LocationID'}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Salinity'}</t>
+          <t>{'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity'}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataTurtleTrapSurveys'}</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleMeasurements.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Sex'}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.TLength'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.TLength', 'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataSnakeDataCollection.Weight'}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.EventID'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'tblEvents', 'Observer_LU'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'Observer_LU.LastName', 'tblEvents.Year', 'Observer_LU.FirstName', 'tblEvents.EventID'}</t>
+          <t>{'tlinkObservers.EventID', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblEvents.Year', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tblEventDataHerps.ObsInits', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblEventDataHerps.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'Observer_LU.LastName', 'Observer_LU.FirstName', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID'}</t>
+          <t>{'Observer_LU.FirstName', 'Observer_LU.LastName', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID'}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEvents.EventID'}</t>
+          <t>{'tblEvents.EventID', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX'}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblLocations.StartUTMX', 'tblLocations.StartUTMY'}</t>
+          <t>{'tblLocations.StartUTMY', 'tblLocations.LocationID', 'tblLocations.StartUTMX'}</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'tluStage.Stage', 'tblFieldDataMinnowTrapSurveys.Stage', 'tluStage.Description'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tluStage.Stage', 'tluStage.Description'}</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.Abundance'}</t>
+          <t>{'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID'}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.LocationID'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Type'}</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.Type', 'tblLocations.SiteID'}</t>
+          <t>{'tblFieldDataCoverBoard.Board_#', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Type'}</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblLocations', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>{'tblLocations.SiteID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.LocationID'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.EventID', 'tblEventDataHerps.Weather', 'tblLocations.LocationID'}</t>
+          <t>{'tblLocations.LocationID', 'tblEventDataHerps.Weather', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.EventID'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.Notes'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Notes', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblLocations', 'tblLocationsPoints'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2765,17 +2765,17 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.SnakeID', 'tblLocationsPoints.UTMY', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.PointID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.PointID', 'tblFieldDataCoverBoard.SnakeID', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Recapture', 'tblFieldDataCoverBoard.LocationID'}</t>
+          <t>{'tblFieldDataCoverBoard.Recapture', 'tblLocations.LocationID', 'tblFieldDataCoverBoard.LocationID'}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataTimeConstrainedSearches.SnakeID', 'tblLocations.StartUTMX', 'tblLocations.StartUTMY'}</t>
+          <t>{'tblLocations.StartUTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataTimeConstrainedSearches.SnakeID', 'tblLocations.StartUTMX'}</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'tblFieldDataCoverBoard', 'tblEvents'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'tblFieldDataCoverBoard.EventID', 'tlinkObservers.ObsInits', 'tblEvents.EventID'}</t>
+          <t>{'tblFieldDataCoverBoard.EventID', 'tlinkObservers.EventID', 'tblEvents.EventID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.WaterTemp', 'tblEventDataHerps.Weather', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tblEventDataHerps.WaterTemp', 'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather'}</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tblEventDataHerps.ObsInits', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'Observer_LU.ObsInits', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'tblEventDataHerps.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.Weather', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather'}</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>{'tluParkCode.PARKCODE', 'tluParkCode.PARKTYPE'}</t>
+          <t>{'tluParkCode.PARKTYPE', 'tluParkCode.PARKCODE'}</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.Trap_Type'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.Trap_Type', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Plastron_Width'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.subgenus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.subgenus'}</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -3845,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3863,14 +3863,14 @@
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N43" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Overstory.SpCode'}</t>
         </is>
       </c>
       <c r="U43" t="n">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Event_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Event_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_Nests'}</t>
+          <t>{'tbl_Events', 'tbl_Nests', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Plot_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Directions', 'tbl_Locations.X_Coord', 'tbl_Locations.Location_ID', 'tbl_Nests.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Events.Event_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Plot_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tlu_Tree_Cond', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tbl_Overstory.SpCode', 'tlu_Tree_Cond.TreeCond_Num', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Text'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.SpCode', 'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Directions', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Notes', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_Azimuth'}</t>
+          <t>{'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH'}</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_WitnessTrees'}</t>
+          <t>{'tbl_WitnessTrees', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tlu_Roads_and_Trails'}</t>
+          <t>{'tbl_Events', 'tlu_Roads_and_Trails', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.ValidName', 'tbl_Events.Event_ID', 'tbl_Locations.Trail', 'tlu_Roads_and_Trails.ListedName', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags', 'tlu_PlaceNames'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlaceNames', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID', 'tlu_PlaceNames.County', 'tbl_Locations.PlaceNameID', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tlu_PlaceNames.County', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tlu_PlaceNames.State', 'tbl_Locations.PlaceNameID'}</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tlu_topo_position.ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition'}</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Overstory', 'tlu_PlaceNames'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tlu_PlaceNames', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -6045,17 +6045,17 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tlu_PlaceNames.County', 'tlu_PlantSpecies.species', 'tlu_PlaceNames.ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Locations.PlaceNameID', 'tlu_PlantSpecies.genus', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tbl_Overstory.SpCode', 'tbl_Locations.PlaceNameID', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID'}</t>
         </is>
       </c>
       <c r="U70" t="n">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -6125,12 +6125,12 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.Seedlings_ID'}</t>
+          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.SpCode'}</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Presence'}</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text', 'tbl_Nests.Presence_First'}</t>
+          <t>{'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -6562,13 +6562,13 @@
         <v>758188</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6580,13 +6580,13 @@
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="M77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U77" t="n">
@@ -6645,10 +6645,10 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U78" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Slope', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Slope_shape', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Text'}</t>
+          <t>{'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'Breeding_Codes.Definition', 'VERTEBRATES.BREED'}</t>
+          <t>{'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.HWY_Mile_Marker'}</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>{'Roadkill', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Roadkill'}</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>{'Roadkill.number_killed', 'Roadkill.Month', 'Roadkill.Species', 'Roadkill.Year'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.number_killed', 'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
+          <t>{'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -7922,13 +7922,13 @@
         <v>281152</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7940,13 +7940,13 @@
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name', 'VERTEBRATES.Date'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Observer', 'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -8325,32 +8325,32 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U99" t="n">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Survey'}</t>
+          <t>{'VERTEBRATES.Survey', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -9090,12 +9090,12 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Species', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species'}</t>
         </is>
       </c>
       <c r="U108" t="n">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>{'Class.Class', 'Class.Field2'}</t>
+          <t>{'Class.Field2', 'Class.Class'}</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Scientific_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat', 'VERTEBRATES.Number', 'VERTEBRATES.Species', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number'}</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.OBS_TYPE'}</t>
+          <t>{'VERTEBRATES.OBS_TYPE', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'VERTEBRATES.Notes'}</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Family', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Location', 'INVERTEBRATES.Order', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Order', 'INVERTEBRATES.Family', 'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Events.Start_Date', 'tbl_Event_Details.Event_Notes', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -10285,12 +10285,12 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Loc_Name'}</t>
+          <t>{'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Hydrology'}</t>
+          <t>{'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.Slope'}</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Table'}</t>
+          <t>{'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Table'}</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_MicroHabitat'}</t>
+          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.LightIndex', 'tbl_Events.Event_ID', 'tbl_Locations.Elevation', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Evergreen', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_Locations.Location_ID', 'tbl_MicroHabitat.VegHeight'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.LightIndex', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_MicroHabitat.VegHeight', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LABE.SampleYear', 'tlu_Species_LABE.Species'}</t>
+          <t>{'tlu_Species_LABE.Species', 'tlu_Species_LABE.SampleYear'}</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_ORCA.SampleYear'}</t>
+          <t>{'tlu_Species_ORCA.SampleYear', 'tlu_Species_ORCA.Species'}</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.Species', 'tlu_Species_WHIS.Species'}</t>
+          <t>{'tlu_Species_WHIS.Species', 'tlu_Species_REDW.Species'}</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO', 'tlu_Species_ORCA'}</t>
+          <t>{'tlu_Species_ORCA', 'tlu_Species_LAVO'}</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species'}</t>
+          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Zip_Code', 'tlu_Contacts.City', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.City', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Length', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_ID', 'tbl_Sites.Route', 'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Route', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Length', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y'}</t>
+          <t>{'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_Y'}</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.First_Name', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID'}</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Events', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tbl_Events.Event_ID', 'tlu_Contacts.Contact_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_Sites'}</t>
+          <t>{'tbl_Events', 'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Desc', 'tbl_Locations.Location_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -12525,12 +12525,12 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.PDOP', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.PDOP', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.EPE', 'tbl_Locations.HDOP'}</t>
+          <t>{'tbl_Locations.HDOP', 'tbl_Locations.EPE'}</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Type', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Subwatershed', 'tbl_Locations.Watershed', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_MacroHabitat', 'tbl_MicroHabitat'}</t>
+          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_MacroHabitat'}</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_MacroHabitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="U157" t="n">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Type', 'tbl_Locations.Coord_Units', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Name', 'tbl_Locations.Y_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Coord_System', 'tbl_Locations.X_Coord', 'tbl_Locations.Est_H_Error'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.X_Coord', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Loc_Type', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.Hydrology', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.MacroHab'}</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.WoodyDebris'}</t>
+          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Herb'}</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Locations.Location_ID', 'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -13725,12 +13725,12 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.DBH'}</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.spcode', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass2', 'tbl_Saplings.DClass3', 'tbl_Saplings.DClass4'}</t>
+          <t>{'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass3', 'tbl_Saplings.DClass2'}</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -14045,12 +14045,12 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tag', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -14445,7 +14445,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Location_ID'}</t>
+          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Location_ID'}</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.CanPos', 'tbl_Overstory.SpCode', 'tlu_Can_Pos.CanPos_Num', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope', 'tbl_Locations.Elevation', 'tbl_Locations.Slope_shape', 'tbl_Locations.Topo_Position', 'tbl_Locations.Aspect', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect'}</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -14765,7 +14765,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Nest_ID', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.SpCode', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tbl_Nests.Nest_ID', 'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tlu_R1_RestOfPlot', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_R1_RestOfPlot', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Num', 'tlu_R1_RestOfPlot.Pres_Text', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_R1_RestOfPlot.Pres_Text', 'tbl_Nests.SpCode', 'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Num', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes'}</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date'}</t>
+          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title'}</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Seedlings.Density', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Events', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tbl_Overstory.Event_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Overstory.DBH', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.PlaceNameID', 'tlu_PlaceNames.ID'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tbl_Locations.PlaceNameID'}</t>
         </is>
       </c>
       <c r="U191" t="n">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.State', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.County'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.County', 'tlu_PlaceNames.State'}</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Y_Coord', 'tbl_Locations.PlaceNameID'}</t>
+          <t>{'tbl_Locations.PlaceNameID', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="U192" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text', 'tbl_Nests.Presence_First'}</t>
+          <t>{'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Density'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Locations', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Datum', 'tbl_Locations.Coord_Units', 'tbl_Locations.Coord_System', 'tbl_Locations.Eco_Notes'}</t>
+          <t>{'tbl_Locations.Datum', 'tbl_Locations.Coord_Units', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Coord_System'}</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Notes', 'tbl_Locations.Other_Disturbance'}</t>
+          <t>{'tbl_Locations.Other_Disturbance', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>{'FIRE.FIRE', 'FIRE.CASENO', 'CRASH.CASENUMBER'}</t>
+          <t>{'CRASH.CASENUMBER', 'FIRE.CASENO', 'FIRE.FIRE'}</t>
         </is>
       </c>
       <c r="U203" t="n">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.NUMEVENTS', 'EDREVENT.NUMEVNTS'}</t>
+          <t>{'EDREVENT.NUMEVNTS', 'EDRSUMM.NUMEVENTS'}</t>
         </is>
       </c>
       <c r="U205" t="n">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>{'OCC.CASEID', 'OCC.VEHNO', 'EMSCARE.CASEID', 'EMSCARE.VEHNO'}</t>
+          <t>{'EMSCARE.CASEID', 'OCC.CASEID', 'EMSCARE.VEHNO', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="U206" t="n">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>{'GV.ALCTESTRESULT', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'GV.ALCTESTRESULT'}</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>{'GV.MODEL', 'GV.CURBWT', 'GV.VEHNO', 'GV.MAKE', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'GV.CASEID'}</t>
+          <t>{'GV.CURBWT', 'GV.CASEID', 'VPICDECODE.VEHNO', 'GV.MAKE', 'GV.VEHNO', 'VPICDECODE.CASEID', 'GV.MODEL'}</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
@@ -17730,12 +17730,12 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.EventDataRecorder', 'GV.DVSPEED', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.EventDataRecorder', 'GV.DVSPEED'}</t>
         </is>
       </c>
       <c r="U216" t="n">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>{'PRE_FHE.CASEID', 'PRE_FHE.VEHNO', 'PRE_FHE.PREEVENT'}</t>
+          <t>{'PRE_FHE.VEHNO', 'PRE_FHE.PREEVENT', 'PRE_FHE.CASEID'}</t>
         </is>
       </c>
       <c r="U218" t="n">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTMAG', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="S219" t="inlineStr">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTMAG', 'INTRUSION.INTDIRECT', 'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTCOMP'}</t>
+          <t>{'INTRUSION.INTCOMP', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT', 'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT'}</t>
+          <t>{'INTRUSION.INTDIRECT', 'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="T222" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'CRASH.CASENUMBER'}</t>
+          <t>{'CRASH.CASENUMBER', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U222" t="n">
@@ -18375,7 +18375,7 @@
       </c>
       <c r="T224" t="inlineStr">
         <is>
-          <t>{'INJURY.INJLEVEL', 'INJURY.INJNO'}</t>
+          <t>{'INJURY.INJNO', 'INJURY.INJLEVEL'}</t>
         </is>
       </c>
       <c r="U224" t="n">
@@ -18535,7 +18535,7 @@
       </c>
       <c r="T226" t="inlineStr">
         <is>
-          <t>{'OCCONTACT.BODYREGION', 'INJURY.VEHNO', 'INJURY.OCCNO', 'OCCONTACT.OCCNO', 'OCCONTACT.VEHNO'}</t>
+          <t>{'OCCONTACT.OCCNO', 'OCCONTACT.BODYREGION', 'OCCONTACT.VEHNO', 'INJURY.OCCNO', 'INJURY.VEHNO'}</t>
         </is>
       </c>
       <c r="U226" t="n">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>{'INJURY', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'INJURY'}</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -18685,7 +18685,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>{'INJURY.VEHNO', 'INJURY.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'INJURY.CASEID', 'VPICDECODE.CASEID', 'INJURY.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -18750,7 +18750,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>{'INJURY', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'INJURY'}</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -18920,7 +18920,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>{'OCC', 'CRASH'}</t>
+          <t>{'CRASH', 'OCC'}</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>{'OCC.EMSVITALTIME', 'CRASH.CRASHTIME'}</t>
+          <t>{'CRASH.CRASHTIME', 'OCC.EMSVITALTIME'}</t>
         </is>
       </c>
       <c r="U231" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>{'OCC.EMSVITALTIME', 'OCC.HOSPGCSTIME'}</t>
+          <t>{'OCC.HOSPGCSTIME', 'OCC.EMSVITALTIME'}</t>
         </is>
       </c>
       <c r="U233" t="n">
@@ -19170,12 +19170,12 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE', 'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL', 'EMSCARE.NOTIFIED'}</t>
+          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.NOTIFIED', 'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE', 'EMSCARE.SCENEDEP'}</t>
         </is>
       </c>
       <c r="T234" t="inlineStr">
         <is>
-          <t>{'OCC.EMSVITALTIME', 'OCC.HOSPVITALTIME', 'OCC.CASEID', 'OCC.EMSRESPRATE', 'EMSCARE.EMSAGENCY'}</t>
+          <t>{'OCC.CASEID', 'EMSCARE.EMSAGENCY', 'OCC.EMSRESPRATE', 'OCC.EMSVITALTIME', 'OCC.HOSPVITALTIME'}</t>
         </is>
       </c>
       <c r="U234" t="n">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.MODELYR', 'VPICDECODE.VEHNO'}</t>
+          <t>{'GV.VEHNO', 'VPICDECODE.VEHNO', 'GV.MODELYR'}</t>
         </is>
       </c>
       <c r="U237" t="n">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="T241" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'PRE_FHE.CATEGORY', 'GLAZING.CATEGORY', 'PRE_FHE.CASEID', 'GLAZING.CASEID', 'PRE_FHE.VEHNO'}</t>
+          <t>{'GLAZING.CATEGORY', 'PRE_FHE.VEHNO', 'GLAZING.VEHNO', 'GLAZING.CASEID', 'PRE_FHE.CATEGORY', 'PRE_FHE.CASEID'}</t>
         </is>
       </c>
       <c r="U241" t="n">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>{'CRASH', 'OCCONTACT'}</t>
+          <t>{'OCCONTACT', 'CRASH'}</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t>{'GLAZING.CASEID', 'VEHMEAS.FRNTWIND', 'CRASH.CASEID', 'CRASH.VEHICLES'}</t>
+          <t>{'VEHMEAS.FRNTWIND', 'GLAZING.CASEID', 'CRASH.CASEID', 'CRASH.VEHICLES'}</t>
         </is>
       </c>
       <c r="U245" t="n">
@@ -20125,12 +20125,12 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'GLAZING.GLAZIMP', 'GLAZING.CASEID'}</t>
+          <t>{'GLAZING.CASEID', 'GLAZING.GLAZIMP', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.VIN', 'GV.CASEID'}</t>
+          <t>{'GV.VIN', 'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>{'CRASH', 'INTERIOR'}</t>
+          <t>{'INTERIOR', 'CRASH'}</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>{'INTERIOR.ADAPTEQUIP', 'INTERIOR.CASEID', 'CRASH.CASEID'}</t>
+          <t>{'INTERIOR.CASEID', 'CRASH.CASEID', 'INTERIOR.ADAPTEQUIP'}</t>
         </is>
       </c>
       <c r="U247" t="n">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'CRASH', 'EDREVENT'}</t>
+          <t>{'VPICDECODE', 'EDREVENT', 'CRASH'}</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20295,7 +20295,7 @@
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.EventDataRecorder', 'VPICDECODE.EventDataRecorderId', 'CRASH.EVENTS'}</t>
+          <t>{'CRASH.EVENTS', 'VPICDECODE.EventDataRecorder', 'VPICDECODE.EventDataRecorderId'}</t>
         </is>
       </c>
       <c r="U248" t="n">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'GV'}</t>
+          <t>{'GV', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PCODE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.TopSpeedMPH', 'GV.DVSPEED', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'VPICDECODE.VEHNO', 'GV.DVSPEED', 'VPICDECODE.CASEID', 'VPICDECODE.TopSpeedMPH'}</t>
         </is>
       </c>
       <c r="U250" t="n">
@@ -20530,12 +20530,12 @@
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'EDRPRECRASH.VEHNO', 'VPICDECODE.CASEID', 'EDRPRECRASH.PCODE'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDRPRECRASH.PCODE', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PVALUE', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>{'GV.MODEL', 'EDREVENT.MAXDVLONG', 'GV.MAKE', 'EDREVENT.CASEID', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'GV.MAKE', 'GV.MODEL', 'EDREVENT.MAXDVLONG', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U251" t="n">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="T253" t="inlineStr">
         <is>
-          <t>{'OCC.CAUSE2', 'OCC.CAUSE1'}</t>
+          <t>{'OCC.CAUSE1', 'OCC.CAUSE2'}</t>
         </is>
       </c>
       <c r="U253" t="n">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>{'INJURY', 'OCCONTACT'}</t>
+          <t>{'OCCONTACT', 'INJURY'}</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20925,7 +20925,7 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>{'OCC.HEIGHT', 'OCC.AGE'}</t>
+          <t>{'OCC.AGE', 'OCC.HEIGHT'}</t>
         </is>
       </c>
       <c r="S256" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="S259" t="inlineStr">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.BELTAVAIL'}</t>
+          <t>{'OCC.BELTAVAIL', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="S260" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="T261" t="inlineStr">
         <is>
-          <t>{'OCC.OCCNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.OCCNO'}</t>
         </is>
       </c>
       <c r="U261" t="n">
@@ -22045,17 +22045,17 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.CMAX', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.CMAX'}</t>
         </is>
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>{'CDC.C6', 'CDC.C5', 'CDC.C1', 'CDC.C4', 'CDC.C3', 'CDC.C2'}</t>
+          <t>{'CDC.C1', 'CDC.C2', 'CDC.C3', 'CDC.C5', 'CDC.C6', 'CDC.C4'}</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.REARBUMP', 'VEHMEAS.FRNTWIND', 'CDC.DVTOTAL', 'VEHMEAS.CASEID', 'VEHMEAS.VEHNO', 'VEHMEAS.FRNTBUMP'}</t>
+          <t>{'VEHMEAS.FRNTWIND', 'VEHMEAS.CASEID', 'VEHMEAS.REARBUMP', 'VEHMEAS.VEHNO', 'CDC.DVTOTAL', 'VEHMEAS.FRNTBUMP'}</t>
         </is>
       </c>
       <c r="U270" t="n">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.EDRSUMMNO', 'EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO'}</t>
         </is>
       </c>
       <c r="S271" t="inlineStr">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'EDREVENT'}</t>
+          <t>{'EDREVENT', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -22205,7 +22205,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDREVENT.EDREVENTNO', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.CASEID', 'EDREVENT.EDREVENTNO', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PTIME', 'EDREVENT.VEHNO', 'CRASH.CASEID', 'CRASH.CASENUMBER', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'EDREVENT.VEHNO', 'EDRPRECRASH.VEHNO', 'CRASH.CASENUMBER', 'EDRPRECRASH.PTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U272" t="n">
@@ -22285,17 +22285,17 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.ModelYear', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'EDREVENT.IGCYCRASH', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.IGCYCDOWN', 'EDRSUMM.VEHNO', 'EDRSUMM.CASEID'}</t>
+          <t>{'EDRSUMM.VEHNO', 'EDRSUMM.CASEID', 'EDRSUMM.IGCYCDOWN'}</t>
         </is>
       </c>
       <c r="U273" t="n">
@@ -22365,7 +22365,7 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'EDREVENT.IGCYCRASH'}</t>
+          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="S274" t="inlineStr">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>{'INJURY.CASEID', 'INJURY.OCCNO', 'INJURY.INJNO', 'INJURY.VEHNO'}</t>
+          <t>{'INJURY.CASEID', 'INJURY.OCCNO', 'INJURY.VEHNO', 'INJURY.INJNO'}</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -22455,7 +22455,7 @@
       </c>
       <c r="T275" t="inlineStr">
         <is>
-          <t>{'OCC.OCCNO', 'OCC.VEHNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.OCCNO', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="U275" t="n">
@@ -22530,12 +22530,12 @@
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'FUEL.CASEID', 'FIRE.CASEID', 'FUEL.VEHNO'}</t>
+          <t>{'FIRE.VEHNO', 'FUEL.CASEID', 'FUEL.VEHNO', 'FIRE.CASEID'}</t>
         </is>
       </c>
       <c r="T276" t="inlineStr">
         <is>
-          <t>{'FIRE.CASENUMBER', 'FUEL.CASENUMBER', 'FIRE.FIRE'}</t>
+          <t>{'FUEL.CASENUMBER', 'FIRE.CASENUMBER', 'FIRE.FIRE'}</t>
         </is>
       </c>
       <c r="U276" t="n">
@@ -22605,12 +22605,12 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>{'OCC.SEX', 'OCC.OCCNO', 'EJECT.OCCNO'}</t>
+          <t>{'EJECT.OCCNO', 'OCC.SEX', 'OCC.OCCNO'}</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>{'EJECT.VEHNO', 'EJECT.CASEID', 'OCC.VEHNO', 'OCC.CASEID'}</t>
+          <t>{'EJECT.VEHNO', 'EJECT.CASEID', 'OCC.CASEID', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>{'AVOID.VEHNO', 'AVOID.CASEID'}</t>
+          <t>{'AVOID.CASEID', 'AVOID.VEHNO'}</t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="T281" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="U281" t="n">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="T282" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIREDAMAGE.DAMAGE'}</t>
+          <t>{'TIREDAMAGE.DAMAGE', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="U282" t="n">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'TIREPLAC.GVWR'}</t>
+          <t>{'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.GVWR'}</t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'TIRE.TIREMANUF', 'TIREPLAC.VEHNO', 'GV.MAKE', 'TIRE.VEHNO'}</t>
+          <t>{'GV.MAKE', 'TIREPLAC.VEHNO', 'GV.VEHNO', 'TIRE.TIREMANUF', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="U286" t="n">
@@ -23410,12 +23410,12 @@
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'TIREPLAC.RECREAR1', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'TIRE.VEHNO', 'TIRE.TIRESIZE', 'GV.MAKE'}</t>
+          <t>{'TIRE.TIRESIZE', 'TIRE.VEHNO', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U287" t="n">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
@@ -23485,12 +23485,12 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.ModelYear', 'VPICDECODE.Make'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.Make', 'VPICDECODE.ModelYear', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'VPICDECODE.Model', 'TIREPLAC.VEHNO', 'VPICDECODE.VEHNO', 'TIREPLAC.RECREAR1', 'TIREPLAC.RECRRPRESS1', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIREPLAC.RECRRPRESS1', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1'}</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
@@ -23645,12 +23645,12 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL', 'VPICDECODE.Model', 'VPICDECODE.VEHNO'}</t>
+          <t>{'TIRE.TIREMODEL', 'VPICDECODE.Model', 'TIRE.VEHNO', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'TIRE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'TIRE.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
@@ -23790,7 +23790,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREDAMAGE'}</t>
+          <t>{'TIREDAMAGE', 'TIRE'}</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL', 'TIREDAMAGE.VEHNO', 'TIREDAMAGE.DAMAGE'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIREDAMAGE.DAMAGE', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRONT1', 'TIRE.VEHNO'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.VEHNO', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.Model', 'VPICDECODE.CASEID', 'TIRE.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
@@ -24045,7 +24045,7 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>{'TIRE.TIRESIZE', 'TIRE.CASEID', 'TIRE.TIRELOC', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIRELOC', 'TIRE.TIRESIZE', 'VPICDECODE.CASEID', 'TIRE.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
@@ -24162,13 +24162,13 @@
         <v>4558103</v>
       </c>
       <c r="F297" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G297" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="H297" t="n">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I297" t="n">
         <v>0.5</v>
@@ -24180,13 +24180,13 @@
         <v>0.4</v>
       </c>
       <c r="L297" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M297" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="N297" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -24210,12 +24210,12 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>{'DISTRACT.CASEID'}</t>
+          <t>{'DISTRACT.CASEID', 'CHILDSEAT.OCCNO'}</t>
         </is>
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U297" t="n">
@@ -24290,12 +24290,12 @@
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>{'GV.MODEL', 'GV.MAKE', 'GV.VEHNO'}</t>
+          <t>{'GV.MODEL', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U298" t="n">
@@ -24350,7 +24350,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'VPICDECODE', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'CHILDSEAT', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.VEHNO', 'VPICDECODE.Model', 'DISTRACT.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'CHILDSEAT.CASEID', 'VPICDECODE.CASEID', 'DISTRACT.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'DISTRACT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'CHILDSEAT.CASEID', 'CHILDSEAT.VEHNO', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
@@ -24375,7 +24375,7 @@
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="U299" t="n">
@@ -24450,12 +24450,12 @@
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>{'DISTRACT.VEHNO', 'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'DISTRACT.DISTRACTN'}</t>
+          <t>{'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'DISTRACT.VEHNO', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.DISTRACT'}</t>
+          <t>{'GV.DISTRACT', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="U300" t="n">
@@ -24510,7 +24510,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'FIRE'}</t>
+          <t>{'FIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
@@ -24520,22 +24520,22 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'FIRE.FIRE'}</t>
+          <t>{'VPICDECODE.CASEID', 'FIRE.VEHNO', 'VPICDECODE.Make', 'FIRE.FIRE'}</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>{'FIRE.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'FIRE.CASEID'}</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.CASEID', 'CRASH.CASEID', 'CRASH.CASENUMBER'}</t>
+          <t>{'GV.CASEID', 'CRASH.CASENUMBER', 'GV.VEHNO', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U301" t="n">
@@ -24600,12 +24600,12 @@
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.LEVEL', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.ENTITY_NAME'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.LEVEL'}</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
@@ -24615,7 +24615,7 @@
       </c>
       <c r="T302" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'sysdiagrams.name', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_PER', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Accountability_Status.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_ELP.LEVEL', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_MATH.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'sysdiagrams.name', 'ACC_HS_Participation_Rate.RATE', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U302" t="n">
@@ -24680,12 +24680,12 @@
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.YEAR'}</t>
+          <t>{'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR'}</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="T303" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.TESTED', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_NTEST', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_EM_SCIENCE.NUM_EXEMPT_TEST', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_Regents_Exams.NUM_EXEMPT_NTEST', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBJECT', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_Regents_Exams.NUM_EXEMPT_TEST', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_SCIENCE.NOT_TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_Regents_Exams.PCT_EXEMPT_TEST', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSAA.NOT_TESTED', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.TOTAL_EXEMPT', 'Annual_EM_SCIENCE.PCT_TESTED', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'Annual_EM_ELA.NOT_TESTED', 'Annual_NYSAA.NOT_TESTED_PER', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_ELA.SSMA_TimeStamp', 'Annual_EM_MATH.NOT_TESTED', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.NUM_TESTED', 'Annual_Regents_Exams.TOTAL_EXEMPT', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_MATH.NUM_EXEMPT_NTEST', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_TEST', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.PER_TESTED', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_MATH.NUM_EXEMPT_TEST', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'ACC_HS_ELP.YEAR', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.PER_PROF', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_EM_SCIENCE.NUM_EXEMPT_NTEST', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_Regents_Exams.NUM_EXEMPT_NTEST', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.NUM_EXEMPT_NTEST', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Total_Cohort_Regents_Exams.TOTAL_EXEMPT', 'Annual_Regents_Exams.YEAR', 'Annual_EM_MATH.NOT_TESTED', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'Annual_Regents_Exams.PCT_EXEMPT_TEST', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.YEAR', 'Annual_EM_SCIENCE.NUM_EXEMPT_TEST', 'Annual_NYSESLAT.PER_NTEST', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.NOT_TESTED_PER', 'Annual_Regents_Exams.NUM_EXEMPT_TEST', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_NYSESLAT.TESTED', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_ELA.NUM_TESTED', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_NYSESLAT.NOT_TESTED', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_EM_SCIENCE.NOT_TESTED', 'Annual_NYSAA.YEAR', 'Annual_EM_MATH.NUM_EXEMPT_TEST', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_Regents_Exams.TESTED', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.SSMA_TimeStamp', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.NUM_EXEMPT_NTEST', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_Regents_Exams.TOTAL_EXEMPT', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSAA.TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.NOT_TESTED', 'Annual_Regents_Exams.SUBJECT', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_TEST', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_TESTED', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_NTEST'}</t>
         </is>
       </c>
       <c r="U303" t="n">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24775,7 +24775,7 @@
       </c>
       <c r="T304" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.COUNTY_CD', 'Annual_Regents_Exams.SSMA_TimeStamp', 'Annual_EM_SCIENCE.SSMA_TimeStamp', 'Annual_EM_MATH.LEVEL4_COUNT', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Annual_NYSAA.SSMA_TimeStamp', 'Inexperienced_Teachers_and_Principals.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_NYSAA.PROFICIENT_COUNT', 'ACC_EM_ELP.YEAR', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_ELA.SSMA_TimeStamp', 'BOCES_and_N/RC.SSMA_TimeStamp', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_MATH.NUM_TESTED', 'Institution_Grouping.SSMA_TimeStamp', 'Postsecondary_Enrollment.SSMA_TimeStamp', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_EM_MATH.SSMA_TimeStamp', 'ACC_EM_NYSESLAT_for_Participation.SSMA_TimeStamp', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_Regents_Exams.YEAR', 'Total_Cohort_Regents_Exams.SSMA_TimeStamp', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.SSMA_TimeStamp', 'Annual_NYSAA.PER_TESTED', 'Annual_NYSAA.TOTAL', 'Annual_NYSESLAT.TOTAL', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Status.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ELL_COUNT', 'Annual_NYSESLAT.SSMA_TimeStamp', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'Postsecondary_Enrollment.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.SSMA_TimeStamp'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_EM_SCIENCE.SSMA_TimeStamp', 'Annual_NYSAA.LEVEL1_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.TOTAL', 'Annual_EM_ELA.YEAR', 'Teachers_Teaching_Out_of_Certification.SSMA_TimeStamp', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Inexperienced_Teachers_and_Principals.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'Annual_EM_MATH.SSMA_TimeStamp', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.SSMA_TimeStamp', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_Regents_Exams.SSMA_TimeStamp', 'ACC_EM_ELP.ELL_COUNT', 'BOCES_and_N/RC.COUNTY_CD', 'Total_Cohort_Regents_Exams.SSMA_TimeStamp', 'Annual_EM_ELA.SSMA_TimeStamp', 'Annual_NYSAA.PROFICIENT_COUNT', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.LEVEL4_COUNT', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.TOTAL', 'ACC_EM_NYSESLAT_for_Participation.SSMA_TimeStamp', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSAA.SSMA_TimeStamp', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.SSMA_TimeStamp', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_NYSESLAT.SSMA_TimeStamp', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Institution_Grouping.SSMA_TimeStamp', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'BOCES_and_N/RC.SSMA_TimeStamp', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_SCIENCE.YEAR'}</t>
         </is>
       </c>
       <c r="U304" t="n">
@@ -24840,12 +24840,12 @@
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="T305" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Levels.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.NUM_ENT', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_NYSAA.LEVEL2_COUNT', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.PROFICIENT_COUNT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Annual_EM_MATH.NUM_TESTED', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Postsecondary_Enrollment.OUT_2_YR_CNT', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_COUNT', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Postsecondary_Enrollment.OUT_2_YR_CNT', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'ACC_EM_ELP.YEAR', 'Annual_NYSAA.LEVEL2_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_NYSESLAT.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'Accountability_Status.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.BOCES_NAME', 'Annual_NYSESLAT.NUM_ENT', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSAA.PROFICIENT_COUNT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_EM_ELA.LEVEL2_COUNT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT'}</t>
         </is>
       </c>
       <c r="U305" t="n">
@@ -24920,12 +24920,12 @@
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
@@ -24935,7 +24935,7 @@
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'BOCES_and_N/RC.BOCES_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL5_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_NYSESLAT.NUM_ENT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL4_COUNT', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'sysdiagrams.name', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_MATH.NUM_TESTED', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.MEAN_SCORE', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_Regents_Exams.YEAR', 'Annual_NYSESLAT.YEAR', 'Accountability_Status.ENTITY_NAME', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_ELA.NUM_TESTED', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_COUNT', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.BOCES_NAME', 'Annual_NYSESLAT.NUM_ENT', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U306" t="n">
@@ -25000,12 +25000,12 @@
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR'}</t>
+          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_ELA.PCT_TESTED', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_MATH.SUBGROUP_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Annual_EM_MATH.PCT_TESTED', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Postsecondary_Enrollment.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'Annual_EM_MATH.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Institution_Grouping.GROUP_NAME', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_TESTED'}</t>
         </is>
       </c>
       <c r="U307" t="n">
@@ -25080,12 +25080,12 @@
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="T308" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Participation_Rate.RATE', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Expenditures_per_Pupil.DATA_REPORTED_ENR', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Expenditures_per_Pupil.DATA_REPORTED_ENR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U308" t="n">
@@ -25160,12 +25160,12 @@
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.PER_LEVEL5'}</t>
+          <t>{'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S309" t="inlineStr">
@@ -25175,7 +25175,7 @@
       </c>
       <c r="T309" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSESLAT.PER_COM', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSAA.TESTED', 'Annual_EM_SCIENCE.LEVEL2_COUNT', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_EM_MATH.LEVEL5_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_NYSAA.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL4', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL3_COUNT', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_EM_SCIENCE.NUM_TESTED', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_NYSAA.LEVEL2_PER', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'sysdiagrams.name', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_NYSAA.LEVEL4_PER', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_ELA.MEAN_SCORE', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.NUM_PROF', 'ACC_HS_Graduation_Rate.COHORT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_Regents_Exams.NUM_LEVEL5', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.PER_PROF', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.NUM_LEVEL2', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Levels.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_NYSESLAT.TESTED', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'Total_Cohort_Regents_Exams.PROF_COUNT', 'Annual_Regents_Exams.NUM_LEVEL3', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_Regents_Exams.NUM_LEVEL1', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Annual_EM_MATH.NUM_TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_HS_ELP.SUCCESS_RATIO', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_ELP.PROGRESS_RATE', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_Regents_Exams.PER_PROF', 'ACC_HS_Participation_Rate.MET_95_PERCENT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Accountability_Status.INSTITUTION_ID'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_PER', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.LEVEL3_PER', 'Annual_Regents_Exams.NUM_LEVEL5', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSAA.LEVEL3_COUNT', 'Inexperienced_Teachers_and_Principals.YEAR', 'Annual_NYSAA.LEVEL2_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.MET_95_PERCENT', 'ACC_HS_ELP.LEVEL', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_HS_ELP.SUCCESS_RATIO', 'Annual_Regents_Exams.NUM_LEVEL2', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSESLAT.TESTED', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL5_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_LEVEL', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Total_Cohort_Regents_Exams.COHORT', 'Annual_Regents_Exams.NUM_LEVEL3', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSESLAT.NUM_ENT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_Regents_Exams.NUM_LEVEL4', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_SCIENCE.LEVEL2_COUNT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL1_COUNT', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_HS_ELP.PROGRESS_RATE', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Accountability_Status.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.PCT_TESTED', 'Annual_NYSAA.LEVEL2_PER', 'Annual_NYSESLAT.PER_COM', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_Regents_Exams.NUM_LEVEL1', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'Total_Cohort_Regents_Exams.PROF_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.NUM_PROF', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_COUNT', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'Annual_NYSAA.SUBJECT', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'Accountability_Levels.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_MATH.PER_PROF', 'Annual_EM_ELA.LEVEL2_COUNT', 'sysdiagrams.name', 'Annual_Regents_Exams.PER_PROF', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES'}</t>
         </is>
       </c>
       <c r="U309" t="n">
@@ -25230,7 +25230,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Accountability_Status'}</t>
         </is>
       </c>
       <c r="P310" t="inlineStr">
@@ -25240,12 +25240,12 @@
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'Accountability_Status.YEAR', 'Accountability_Status.OVERALL_STATUS'}</t>
         </is>
       </c>
       <c r="S310" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="T310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Accountability_Levels.YEAR', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSAA.LEVEL2_COUNT', 'Accountability_Status.MADE_PROGRESS_FLAG', 'Annual_NYSAA.ENTITY_CD', 'Annual_NYSAA.LEVEL3_COUNT', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Levels.INDICATOR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_MATH.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSAA.LEVEL3_COUNT', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_NYSAA.LEVEL2_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Accountability_Status.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_Regents_Exams.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'Annual_NYSESLAT.YEAR', 'Accountability_Levels.LEVEL', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Levels.INDICATOR', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'Annual_EM_MATH.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Expenditures_per_Pupil.ENTITY_CD', 'Accountability_Status.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U310" t="n">
@@ -25320,12 +25320,12 @@
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Accountability_Status.ENTITY_NAME'}</t>
+          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="T311" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.LEVEL', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Accountability_Status.OVERRIDE', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status.OVERRIDE', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.LEVEL', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U311" t="n">
@@ -25400,12 +25400,12 @@
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="T312" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'BOCES_and_N/RC.BOCES_NAME', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_NYSESLAT.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Participation_Rate.SUBJECT', 'BOCES_and_N/RC.BOCES_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U312" t="n">
@@ -25480,22 +25480,22 @@
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_MATH.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U313" t="n">
@@ -25560,12 +25560,12 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
@@ -25575,7 +25575,7 @@
       </c>
       <c r="T314" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U314" t="n">
@@ -25640,12 +25640,12 @@
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S315" t="inlineStr">
@@ -25655,7 +25655,7 @@
       </c>
       <c r="T315" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'sysdiagrams.name', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'Accountability_Status.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U315" t="n">
@@ -25710,7 +25710,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_ELP'}</t>
+          <t>{'ACC_EM_ELP', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -25720,7 +25720,7 @@
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25730,12 +25730,12 @@
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U316" t="n">
@@ -25800,12 +25800,12 @@
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUCCESS_RATIO'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="T317" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U317" t="n">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation'}</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -25880,7 +25880,7 @@
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25895,7 +25895,7 @@
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_SCIENCE.NOT_TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_ELA.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_TESTED', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_ELA.NOT_TESTED', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.NOT_TESTED', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSAA.PER_TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_NYSESLAT.TOTAL', 'Annual_Regents_Exams.NUM_EXEMPT_NTEST', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'BOCES_and_N/RC.COUNTY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_Regents_Exams.NUM_EXEMPT_NTEST', 'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_NYSESLAT.PER_EMER', 'Annual_EM_ELA.LEVEL3_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_SCIENCE.NOT_TESTED', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.PCT_TESTED', 'Accountability_Status.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'BOCES_and_N/RC.COUNTY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.TESTED', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Annual_EM_ELA.NOT_TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="U318" t="n">
@@ -25960,7 +25960,7 @@
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="T319" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U319" t="n">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping', 'ACC_EM_ELP'}</t>
+          <t>{'ACC_EM_ELP', 'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation'}</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
@@ -26040,22 +26040,22 @@
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.LEVEL', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.TESTED', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_NTEST', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.TESTED', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.NUM_EXEMPT_TEST', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_Regents_Exams.NUM_EXEMPT_NTEST', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.TESTED', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_NTEST', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.NOT_TESTED', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_Regents_Exams.PCT_EXEMPT_TEST', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_ELA.NOT_TESTED', 'Annual_NYSAA.NOT_TESTED_PER', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_NYSAA.LEVEL2_PER', 'Annual_EM_MATH.NOT_TESTED', 'sysdiagrams.name', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_NTEST', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_EM_MATH.NUM_EXEMPT_NTEST', 'Annual_EM_ELA.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_TEST', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_MATH.NUM_EXEMPT_TEST', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_EM_SCIENCE.NUM_EXEMPT_NTEST', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_Regents_Exams.NUM_EXEMPT_NTEST', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.NUM_EXEMPT_NTEST', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_MATH.NOT_TESTED', 'Annual_NYSAA.LEVEL2_PER', 'ACC_HS_ELP.LEVEL', 'Annual_Regents_Exams.PCT_EXEMPT_TEST', 'Accountability_Levels.LEVEL', 'Annual_EM_SCIENCE.NUM_EXEMPT_TEST', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.PER_NTEST', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_NYSAA.NOT_TESTED_PER', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_NYSESLAT.TESTED', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_MATH.PCT_NOT_TESTED', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_SCIENCE.NOT_TESTED', 'BOCES_and_N/RC.BOCES_NAME', 'Annual_NYSESLAT.NUM_ENT', 'Annual_EM_MATH.NUM_EXEMPT_TEST', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_Regents_Exams.TESTED', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_SCIENCE.NUM_EXEMPT_NTEST', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSAA.TESTED', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_EM_ELA.LEVEL2_COUNT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'sysdiagrams.name', 'Annual_EM_ELA.NOT_TESTED', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_TEST', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.NUM_EXEMPT_NTEST'}</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -26120,12 +26120,12 @@
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="T321" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_Participation_Rate.COHORT', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'Total_Cohort_Regents_Exams.COHORT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_EM_MATH.NUM_TESTED', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.COHORT', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.COHORT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Participation_Rate.COHORT', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U321" t="n">
@@ -26190,7 +26190,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_Participation_Rate'}</t>
+          <t>{'ACC_EM_Participation_Rate', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26215,7 +26215,7 @@
       </c>
       <c r="T322" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_EM_Participation_Rate.RATE', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_TEST', 'Annual_NYSESLAT.PER_ENT', 'Accountability_Status.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_TESTED', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Accountability_Levels.INDICATOR', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_NTEST', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_NYSAA.PER_TESTED', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_NYSAA.LEVEL3_PER', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Participation_Rate.MET_95_PERCENT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_TEST', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_NYSESLAT.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.PCT_TESTED', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.MET_95_PERCENT', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Accountability_Status.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Accountability_Levels.INDICATOR', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Annual_EM_ELA.LEVEL4_%TESTED', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_EM_ELA.PCT_TESTED', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.PER_TESTED', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U322" t="n">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_Participation_Rate'}</t>
+          <t>{'ACC_EM_Participation_Rate', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26290,12 +26290,12 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_TRAN', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.PCT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_NYSAA.PROFICIENT_PER', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_NYSESLAT.PER_EMER', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_NYSAA.LEVEL4_PER', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_NYSAA.PER_TESTED', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_MATH.PER_PROF', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSESLAT.PER_NTEST', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_NYSESLAT.YEAR', 'ACC_HS_ELP.PROGRESS_RATE', 'Annual_EM_ELA.LEVEL2_%TESTED'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_PER', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_ELP.PROGRESS_RATE', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_EM_Participation_Rate.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSESLAT.PER_EMER', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_NYSESLAT.YEAR', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_NYSESLAT.PER_NTEST', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.PER_PROF', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_MATH.LEVEL5_%TESTED', 'ACC_HS_Participation_Rate.RATE', 'Annual_NYSESLAT.PER_TRAN', 'Annual_EM_ELA.PCT_TESTED'}</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26370,12 +26370,12 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_EM_ELA.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSAA.TOTAL', 'ACC_HS_ELP.PROGRESS_RATE', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_NYSESLAT.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.MEAN_SCORE'}</t>
+          <t>{'Annual_NYSAA.TOTAL', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_EM_ELA.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.YEAR'}</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -26440,12 +26440,12 @@
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -26455,7 +26455,7 @@
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Participation_Rate.RATE', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'sysdiagrams.name', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'BOCES_and_N/RC.SCHOOL_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Accountability_Status.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'sysdiagrams.name', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -26510,7 +26510,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -26520,22 +26520,22 @@
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T326" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Participation_Rate.RATE', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.TOTAL', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'sysdiagrams.name', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_NYSAA.TOTAL', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.TOTAL', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'sysdiagrams.name', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Participation_Rate.RATE', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U326" t="n">
@@ -26590,7 +26590,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
@@ -26600,12 +26600,12 @@
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S327" t="inlineStr">
@@ -26615,7 +26615,7 @@
       </c>
       <c r="T327" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_NYSESLAT.TOTAL', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Annual_NYSAA.LEVEL2_PER', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_NYSAA.LEVEL4_PER', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.MEAN_SCORE', 'Annual_NYSAA.TOTAL', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL1_PER', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_PER', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_NYSESLAT.TOTAL', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_EM_Participation_Rate.YEAR', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSAA.LEVEL2_PER', 'Annual_NYSESLAT.YEAR', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.TOTAL', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSAA.LEVEL4_PER', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_MATH.MEAN_SCORE', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Annual_NYSAA.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Participation_Rate.RATE', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U327" t="n">
@@ -26670,7 +26670,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
@@ -26680,22 +26680,22 @@
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_NYSESLAT.NUM_ENT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'BOCES_and_N/RC.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_CD', 'Institution_Grouping.INSTITUTION_ID', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'sysdiagrams.name', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Accountability_Status.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_NYSESLAT.NUM_ENT', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'ACC_HS_Participation_Rate.RATE', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR'}</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -26760,12 +26760,12 @@
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S329" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="T329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'Annual_NYSESLAT.SUBJECT', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.MEAN_SCORE', 'Total_Cohort_Regents_Exams.COHORT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Annual_EM_ELA.LEVEL1_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Graduation_Rate.COHORT', 'Annual_EM_MATH.ASSESSMENT_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_EM_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Total_Cohort_Regents_Exams.COHORT', 'Annual_NYSESLAT.SUBJECT', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Graduation_Rate.COHORT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Participation_Rate.COHORT', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="U329" t="n">
@@ -26840,22 +26840,22 @@
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.BOCES_NAME', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Annual_NYSAA.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.INSTITUTION_ID', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.MEAN_SCORE', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'Accountability_Status.YEAR', 'Annual_EM_MATH.ASSESSMENT_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'Annual_NYSESLAT.YEAR', 'Accountability_Status.ENTITY_NAME', 'Annual_EM_ELA.MEAN_SCORE', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="U330" t="n">
@@ -26920,22 +26920,22 @@
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'ACC_HS_ELP.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_MATH.MEAN_SCORE', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'sysdiagrams.name', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_EM_ELA.MEAN_SCORE', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'BOCES_and_N/RC.DISTRICT_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSAA.SUBJECT', 'BOCES_and_N/RC.DISTRICT_CD', 'ACC_HS_Participation_Rate.SUBJECT', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.MEAN_SCORE', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES'}</t>
         </is>
       </c>
       <c r="U331" t="n">
@@ -27000,12 +27000,12 @@
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.PROGRESS_RATE'}</t>
+          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="S332" t="inlineStr">
@@ -27015,7 +27015,7 @@
       </c>
       <c r="T332" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Accountability_Levels.YEAR', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_EM_ELP.BENCHMARK', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.NUM_ENT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_Regents_Exams.YEAR', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.RATE', 'Accountability_Levels.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.BENCHMARK', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'Annual_NYSESLAT.NUM_ENT', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUCCESS_RATIO', 'Annual_EM_MATH.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U332" t="n">
@@ -27070,7 +27070,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_HS_ELP'}</t>
+          <t>{'ACC_HS_ELP', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -27080,7 +27080,7 @@
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27090,12 +27090,12 @@
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_ELA.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_EM_ELA.LEVEL3_COUNT', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.NUM_ENT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.MEAN_SCORE', 'Annual_EM_ELA.NUM_PROF', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_NYSESLAT.NUM_ENT', 'ACC_EM_ELP.ELL_COUNT', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.NUM_PROF', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U333" t="n">
@@ -27150,7 +27150,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil', 'Institution_Grouping', 'ACC_HS_ELP'}</t>
+          <t>{'ACC_HS_ELP', 'Institution_Grouping', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
@@ -27160,22 +27160,22 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_Chronic_Absenteeism', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Expenditures_per_Pupil.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSESLAT.PER_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Levels.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_EM_ELA.INSTITUTION_ID', 'Postsecondary_Enrollment.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_NYSAA.YEAR', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_NYSESLAT.NUM_EMER', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'sysdiagrams.name', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.INSTITUTION_ID', 'Annual_NYSAA.TOTAL', 'Expenditures_per_Pupil.DATA_REPORTED_EXP', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Expenditures_per_Pupil.DATA_REPORTED_ENR', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_ELP.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.YEAR', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Annual_EM_ELA.LEVEL3_COUNT', 'ACC_EM_ELP.ELL_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Expenditures_per_Pupil.DATA_REPORTED_ENR', 'Annual_NYSAA.TOTAL', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Expenditures_per_Pupil.DATA_REPORTED_EXP', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.PER_EXP', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_ELA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES'}</t>
         </is>
       </c>
       <c r="U334" t="n">
@@ -27240,12 +27240,12 @@
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S335" t="inlineStr">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="T335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_HS_ELP.ENTITY_CD', 'Annual_EM_MATH.LEVEL5_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Accountability_Levels.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_MATH.LEVEL4_COUNT', 'Accountability_Status.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_EM_SCIENCE.NUM_TESTED', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_NYSESLAT.NUM_EMER', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_MATH.LEVEL2_COUNT', 'ACC_EM_NYSESLAT_for_Participation.SSMA_TimeStamp', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSAA.TOTAL', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.NUM_PROF', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Status.ENTITY_CD', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'Accountability_Status.OVERALL_STATUS', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Accountability_Levels.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.NUM_ENT', 'Accountability_Status.MADE_PROGRESS', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_PRINC', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSAA.EXEMPT', 'Annual_NYSAA.PROFICIENT_COUNT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'Postsecondary_Enrollment.NYS_PVT_2_YR_CNT', 'Accountability_Levels.INDICATOR', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.YEAR', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_ELP.ELL_COUNT', 'Annual_EM_MATH.TOTAL_COUNT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSESLAT.YEAR', 'Accountability_Levels.LEVEL', 'Postsecondary_Enrollment.NYS_PVT_2_YR_CNT', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_HS_ELP.YEAR', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSESLAT.NUM_ENT', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SSMA_TimeStamp', 'Annual_NYSESLAT.NUM_EMER', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSAA.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_EM_ELP.ELL_COUNT', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.TOTAL', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Levels.INDICATOR', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_CD', 'Annual_EM_ELA.NUM_PROF', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Accountability_Status.MADE_PROGRESS', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_COUNT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Inexperienced_Teachers_and_Principals.NUM_PRINC', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_NYSAA.EXEMPT', 'Annual_NYSAA.YEAR', 'Annual_EM_MATH.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSAA.PROFICIENT_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Expenditures_per_Pupil.ENTITY_CD', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'Accountability_Status.MADE_PROGRESS_FLAG', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U335" t="n">
@@ -27320,12 +27320,12 @@
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S336" t="inlineStr">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="T336" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_MATH.YEAR', 'Accountability_Status.OVERALL_STATUS', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Accountability_Levels.INDICATOR', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Accountability_Status.ENTITY_CD', 'Postsecondary_Enrollment.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.TOTAL_COUNT', 'Accountability_Status.OVERALL_STATUS', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.YEAR', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Annual_Regents_Exams.YEAR', 'Annual_NYSAA.YEAR', 'Annual_NYSESLAT.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Accountability_Levels.INDICATOR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Accountability_Status.ENTITY_CD', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U336" t="n">
@@ -27400,12 +27400,12 @@
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S337" t="inlineStr">
@@ -27415,7 +27415,7 @@
       </c>
       <c r="T337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'Annual_EM_ELA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_ELP.ENTITY_CD', 'Annual_EM_SCIENCE.PER_PROF', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Annual_NYSESLAT.TOTAL', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Accountability_Status.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_ELA.ENTITY_CD', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSAA.TOTAL', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Status.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'Accountability_Status.OVERRIDE', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Accountability_Status.MADE_PROGRESS', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_NYSAA.PROFICIENT_COUNT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Accountability_Levels.INDICATOR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_EM_MATH.TOTAL_COUNT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status.INSTITUTION_ID'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'BOCES_and_N/RC.DISTRICT_CD', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'Accountability_Status.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Accountability_Status.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.TOTAL', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Levels.INDICATOR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_CD', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Accountability_Status.MADE_PROGRESS', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_MATH.ENTITY_CD', 'BOCES_and_N/RC.DISTRICT_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSAA.PROFICIENT_COUNT', 'Annual_EM_SCIENCE.PER_PROF', 'Accountability_Status.OVERRIDE', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Expenditures_per_Pupil.ENTITY_CD', 'Accountability_Status.MADE_PROGRESS_FLAG', 'Annual_EM_MATH.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES'}</t>
         </is>
       </c>
       <c r="U337" t="n">
@@ -27480,12 +27480,12 @@
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED'}</t>
         </is>
       </c>
       <c r="S338" t="inlineStr">
@@ -27495,7 +27495,7 @@
       </c>
       <c r="T338" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Accountability_Levels.LEVEL', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.PCT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Participation_Rate.RATE', 'Annual_Regents_Exams.NUM_LEVEL2', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.LEVEL1_COUNT', 'Accountability_Levels.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSESLAT.PER_TEST', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_NYSAA.TESTED', 'Annual_EM_SCIENCE.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'ACC_EM_Participation_Rate.MET_95_PERCENT', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.TESTED', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_NYSESLAT.TOTAL', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL3', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL4', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_SCIENCE.NOT_TESTED', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.PCT_EXEMPT_TEST', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_EM_SCIENCE.PCT_TESTED', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_Regents_Exams.ASSMNT_FLAG', 'Annual_EM_ELA.NOT_TESTED', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_NYSAA.LEVEL2_PER', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Accountability_Levels.INDICATOR', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_MATH.NUM_TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_ELA.LEVEL2_COUNT', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_EM_ELA.MEAN_SCORE', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_NYSAA.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_Regents_Exams.PER_LEVEL3', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Annual_EM_MATH.PER_PROF', 'ACC_EM_ELP.LEVEL', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Annual_NYSAA.LEVEL1_PER', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_MATH.TOTAL_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_EM_ELA.ASSESSMENT_NAME'}</t>
+          <t>{'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_NYSAA.LEVEL1_PER', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSESLAT.TOTAL', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_NYSAA.LEVEL2_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_COUNT', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_NYSESLAT.PER_TEST', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.PCT_TESTED', 'Annual_Regents_Exams.ASSMNT_FLAG', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSAA.LEVEL2_PER', 'ACC_HS_ELP.LEVEL', 'Annual_Regents_Exams.PCT_EXEMPT_TEST', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Annual_Regents_Exams.NUM_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL3', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_ELP.LEVEL', 'Annual_Regents_Exams.PCT_EXEMPT_NTEST', 'Annual_NYSESLAT.TESTED', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Levels.INDICATOR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_MATH.NUM_TESTED', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL3', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_SCIENCE.NOT_TESTED', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSAA.TESTED', 'Annual_EM_SCIENCE.NUM_TESTED', 'Accountability_Levels.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.PER_PROF', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_EM_ELA.NOT_TESTED', 'ACC_EM_Participation_Rate.MET_95_PERCENT', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'Annual_Regents_Exams.NUM_LEVEL4', 'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_SCIENCE.LEVEL2_COUNT'}</t>
         </is>
       </c>
       <c r="U338" t="n">
@@ -27560,12 +27560,12 @@
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S339" t="inlineStr">
@@ -27575,7 +27575,7 @@
       </c>
       <c r="T339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.PCT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.NUM_LEVEL2', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_TEST', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.TESTED', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSESLAT.TESTED', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBJECT', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL3', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL4', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_ELP.LEVEL', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_TEST', 'Annual_EM_MATH.LEVEL4_COUNT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_EM_SCIENCE.NUM_TESTED', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_Regents_Exams.NUM_LEVEL1', 'Annual_NYSAA.NOT_TESTED_PER', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_NYSAA.LEVEL2_PER', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'Annual_Regents_Exams.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_EM_ELA.MEAN_SCORE', 'Annual_NYSAA.TOTAL', 'Annual_NYSAA.PER_TESTED', 'Annual_NYSAA.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_NYSAA.EXEMPT_PER'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_PER', 'BOCES_and_N/RC.YEAR', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL1_COUNT', 'Annual_NYSAA.LEVEL3_PER', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.PCT_EXEMPT_TEST', 'Annual_NYSAA.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL2_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'Annual_EM_MATH.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Annual_NYSESLAT.PER_TEST', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_Regents_Exams.YEAR', 'Annual_EM_MATH.PCT_TESTED', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSAA.LEVEL2_PER', 'ACC_HS_ELP.LEVEL', 'Annual_NYSESLAT.YEAR', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.NUM_LEVEL1', 'Annual_NYSAA.NOT_TESTED_PER', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Annual_NYSAA.TOTAL', 'Annual_Regents_Exams.NUM_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL3', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'Annual_NYSESLAT.TESTED', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_NYSAA.EXEMPT_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_Regents_Exams.NUM_LEVEL3', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_Regents_Exams.TESTED', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.NUM_TESTED', 'Annual_NYSAA.TESTED', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'Annual_Regents_Exams.NUM_LEVEL4', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_TESTED'}</t>
         </is>
       </c>
       <c r="U339" t="n">
@@ -27640,7 +27640,7 @@
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels'}</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27655,7 +27655,7 @@
       </c>
       <c r="T340" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U340" t="n">
@@ -27720,12 +27720,12 @@
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels'}</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.YEAR'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -27735,7 +27735,7 @@
       </c>
       <c r="T341" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_TESTED', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.LEVEL4_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_NYSAA.PER_TESTED', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_PER', 'BOCES_and_N/RC.YEAR', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_ELP.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Accountability_Status.ENTITY_NAME', 'Annual_EM_ELA.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL5_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_Regents_Exams.SUBJECT', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U341" t="n">
@@ -27800,7 +27800,7 @@
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels'}</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27810,12 +27810,12 @@
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EMER'}</t>
+          <t>{'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_EMER'}</t>
         </is>
       </c>
       <c r="T342" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_NYSAA.YEAR', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'BOCES_and_N/RC.SCHOOL_NAME', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.SUBJECT', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_EM_SCIENCE.NUM_TESTED', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_NYSAA.LEVEL4_PER', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSAA.TOTAL', 'Annual_EM_MATH.ASSESSMENT_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.COHORT', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_SCIENCE.PCT_TESTED', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_EM_MATH.NUM_TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_EM_ELP.LEVEL', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_MATH.TOTAL_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Teachers_Teaching_Out_of_Certification.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSAA.LEVEL3_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_ELP.LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.LEVEL5_%TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_HS_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_Regents_Exams.SUBJECT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'Annual_EM_MATH.PCT_TESTED', 'ACC_EM_ELP.ELL_COUNT', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_NYSAA.TOTAL', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.SUBJECT', 'Annual_NYSAA.YEAR', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_SCIENCE.PCT_TESTED', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_MATH.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'Accountability_Levels.YEAR', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U342" t="n">
@@ -27880,12 +27880,12 @@
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels'}</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.YEAR'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.YEAR'}</t>
         </is>
       </c>
       <c r="S343" t="inlineStr">
@@ -27895,7 +27895,7 @@
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_ELA.PCT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_EM_Participation_Rate.RATE', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.PER_TEST', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_Regents_Exams.PER_LEVEL1', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_ELP.LEVEL', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.PCT_TESTED', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_Regents_Exams.NUM_LEVEL1', 'ACC_EM_ELP.YEAR', 'Annual_NYSAA.PROFICIENT_PER', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL2_PER', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSAA.PER_TESTED', 'Annual_EM_ELA.MEAN_SCORE', 'Annual_NYSAA.TOTAL', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_PER', 'BOCES_and_N/RC.YEAR', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_NYSAA.LEVEL3_PER', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_EM_Participation_Rate.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_NYSESLAT.PER_TEST', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSAA.LEVEL2_PER', 'Annual_NYSESLAT.PER_COM', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_Regents_Exams.NUM_LEVEL1', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Annual_NYSAA.TOTAL', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_ELP.LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_MATH.MEAN_SCORE', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.SUBJECT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_NYSAA.YEAR', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_NYSAA.PER_TESTED', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.RATE', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U343" t="n">
@@ -27960,12 +27960,12 @@
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels'}</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.YEAR'}</t>
+          <t>{'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="S344" t="inlineStr">
@@ -27975,7 +27975,7 @@
       </c>
       <c r="T344" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_EM_MATH.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSESLAT.PER_TEST', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_NYSAA.YEAR', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_EM_MATH.LEVEL5_COUNT', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.TOTAL', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSAA.LEVEL2_PER', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_PER', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_ELA.MEAN_SCORE', 'Expenditures_per_Pupil.DATA_REPORTED_EXP', 'Annual_EM_MATH.ASSESSMENT_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL3', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Annual_EM_MATH.PER_PROF', 'BOCES_and_N/RC.DISTRICT_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSAA.EXEMPT_PER', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_EM_Participation_Rate.RATE', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_ELA.NUM_TESTED', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_Regents_Exams.PER_LEVEL5', 'ACC_EM_ELP.SUBJECT', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_Regents_Exams.ASSMNT_FLAG', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Levels.INDICATOR', 'Annual_EM_MATH.NUM_TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_HS_ELP.SUCCESS_RATIO', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Accountability_Status.YEAR', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Annual_EM_ELA.PER_PROF', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_Regents_Exams.PER_LEVEL2', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_PER', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.LEVEL3_PER', 'Annual_EM_ELA.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_Regents_Exams.ASSMNT_FLAG', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSESLAT.PER_NTEST', 'Annual_EM_ELA.MEAN_SCORE', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'Annual_Regents_Exams.PER_LEVEL3', 'ACC_EM_ELP.LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_EM_MATH.LEVEL5_%TESTED', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'ACC_EM_ELP.PROGRESS_RATE', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_MATH.MEAN_SCORE', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.NUM_EMER', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Annual_Regents_Exams.SUBJECT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Annual_EM_ELA.PCT_TESTED', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL1_COUNT', 'Annual_NYSESLAT.TOTAL', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.YEAR', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_NYSESLAT.PER_TEST', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'Annual_EM_MATH.PCT_TESTED', 'Annual_NYSAA.LEVEL2_PER', 'Annual_EM_ELA.LEVEL3_COUNT', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Expenditures_per_Pupil.DATA_REPORTED_EXP', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Levels.INDICATOR', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_NYSAA.EXEMPT_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_ELA.NUM_TESTED', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_EM_MATH.LEVEL5_COUNT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Accountability_Status.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.SUBJECT', 'Annual_NYSAA.YEAR', 'Annual_Regents_Exams.PER_LEVEL5', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_EM_SCIENCE.PER_PROF', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_MATH.PER_PROF', 'Annual_EM_ELA.LEVEL2_COUNT', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES'}</t>
         </is>
       </c>
       <c r="U344" t="n">
@@ -28040,12 +28040,12 @@
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels'}</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S345" t="inlineStr">
@@ -28055,7 +28055,7 @@
       </c>
       <c r="T345" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBJECT', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Total_Cohort_Regents_Exams.PROF_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_EM_SCIENCE.NUM_TESTED', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Postsecondary_Enrollment.SSMA_TimeStamp', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.YEAR', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'BOCES_and_N/RC.DISTRICT_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Annual_EM_MATH.ASSESSMENT_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'Annual_Regents_Exams.YEAR', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.SUBJECT', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Accountability_Status.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'ACC_EM_Participation_Rate.SUBJECT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_COUNT', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'Postsecondary_Enrollment.SSMA_TimeStamp', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_ELA.NUM_TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Annual_Regents_Exams.SUBJECT', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U345" t="n">
@@ -28120,12 +28120,12 @@
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.BOCES_NAME'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="S346" t="inlineStr">
@@ -28135,7 +28135,7 @@
       </c>
       <c r="T346" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'sysdiagrams.name', 'Annual_NYSAA.YEAR', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_NYSESLAT.YEAR', 'Postsecondary_Enrollment.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR'}</t>
+          <t>{'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_ELA.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Annual_NYSAA.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_NYSESLAT.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Postsecondary_Enrollment.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U346" t="n">
@@ -28200,7 +28200,7 @@
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28210,12 +28210,12 @@
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="T347" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'BOCES_and_N/RC.COUNTY_CD', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_NYSAA.LEVEL2_COUNT', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_NYSESLAT.YEAR', 'sysdiagrams.name', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_NYSAA.LEVEL3_COUNT', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.YEAR', 'Annual_EM_SCIENCE.YEAR', 'BOCES_and_N/RC.COUNTY_CD', 'Annual_EM_SCIENCE.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U347" t="n">
@@ -28280,12 +28280,12 @@
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP'}</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
@@ -28295,7 +28295,7 @@
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'BOCES_and_N/RC.COUNTY_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'BOCES_and_N/RC.BOCES_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'sysdiagrams.name', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Expenditures_per_Pupil.DATA_REPORTED_EXP', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'ACC_EM_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'BOCES_and_N/RC.BOCES_CD', 'Annual_NYSESLAT.YEAR', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Accountability_Status.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'BOCES_and_N/RC.COUNTY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Expenditures_per_Pupil.DATA_REPORTED_EXP', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.DISTRICT_NAME', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U348" t="n">
@@ -28360,7 +28360,7 @@
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28375,7 +28375,7 @@
       </c>
       <c r="T349" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.COUNTY_CD', 'BOCES_and_N/RC.DISTRICT_NAME', 'BOCES_and_N/RC.BOCES_CD'}</t>
+          <t>{'BOCES_and_N/RC.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME', 'BOCES_and_N/RC.BOCES_CD', 'BOCES_and_N/RC.DISTRICT_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'BOCES_and_N/RC.COUNTY_CD'}</t>
         </is>
       </c>
       <c r="U349" t="n">
@@ -28440,7 +28440,7 @@
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="T350" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Institution_Grouping.GROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.COUNTY_CD', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_ELA.LEVEL2_COUNT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.COUNTY_CD', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U350" t="n">
@@ -28520,12 +28520,12 @@
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S351" t="inlineStr">
@@ -28535,7 +28535,7 @@
       </c>
       <c r="T351" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_NYSESLAT.PER_EXP', 'Annual_EM_SCIENCE.NUM_PROF', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Accountability_Status_by_Subgroup.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Accountability_Levels.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_HIGH', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.NUM_TESTED', 'Annual_EM_MATH.NUM_PROF', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.PER_PRINC_INEXP', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'ACC_HS_ELP.YEAR', 'Total_Cohort_Regents_Exams.PROF_COUNT', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_Regents_Exams.NUM_PROF', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'Postsecondary_Enrollment.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_HIGH', 'Accountability_Status.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_HIGH', 'Annual_Regents_Exams.NUM_PROF', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Annual_EM_SCIENCE.NUM_PROF', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'ACC_EM_Participation_Rate.YEAR', 'Inexperienced_Teachers_and_Principals.PER_PRINC_INEXP', 'Accountability_Status.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Postsecondary_Enrollment.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Annual_NYSESLAT.NUM_EMER', 'Accountability_Levels.INSTITUTION_ID', 'Annual_EM_MATH.YEAR', 'Total_Cohort_Regents_Exams.PROF_COUNT', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_NYSESLAT.PER_EXP', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_HIGH', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Annual_EM_MATH.NUM_PROF', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.YEAR', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW'}</t>
         </is>
       </c>
       <c r="U351" t="n">
@@ -28600,12 +28600,12 @@
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Institution_Grouping.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
@@ -28615,7 +28615,7 @@
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_ELA.PCT_TESTED', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.BOCES_NAME', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Annual_EM_ELA.ENTITY_NAME', 'Accountability_Levels.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_ELP.ENTITY_CD', 'Annual_EM_SCIENCE.PER_PROF', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_PRINC_HIGH', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_EM_ELP.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'Annual_NYSESLAT.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_LOW', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_NYSAA.PROFICIENT_PER', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'sysdiagrams.name', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Annual_EM_MATH.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSESLAT.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.PER_PRINC_INEXP', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_CD', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_ELP.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Annual_EM_MATH.PER_PROF', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Accountability_Status.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_HIGH', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_NYSESLAT.PER_EMER', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'Annual_EM_MATH.PCT_TESTED', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Annual_NYSESLAT.YEAR', 'Accountability_Status.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Postsecondary_Enrollment.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_LOW', 'Annual_NYSESLAT.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Accountability_Status_by_Subgroup.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Accountability_Status.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'Inexperienced_Teachers_and_Principals.PER_PRINC_INEXP', 'ACC_EM_ELP.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_EM_MATH.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_PRINC_HIGH', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'Accountability_Levels.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_CD', 'BOCES_and_N/RC.BOCES_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_NYSAA.PROFICIENT_PER', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Annual_EM_MATH.PER_PROF', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'ACC_EM_ELP.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_HIGH', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_TESTED'}</t>
         </is>
       </c>
       <c r="U352" t="n">
@@ -28680,7 +28680,7 @@
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28690,12 +28690,12 @@
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.NUM_EXP', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Participation_Rate.RATE', 'Annual_NYSESLAT.PER_EXP', 'ACC_EM_Participation_Rate.RATE', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Annual_NYSESLAT.PER_ENT', 'Accountability_Status_by_Subgroup.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Annual_EM_SCIENCE.PCT_TESTED', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_NYSESLAT.PER_COM', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSAA.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'sysdiagrams.name', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Annual_EM_SCIENCE.PER_PROF', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Inexperienced_Teachers_and_Principals.PER_PRINC_INEXP', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'Inexperienced_Teachers_and_Principals.PER_PRINC_LOW', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'Annual_EM_ELA.PER_PROF', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_Regents_Exams.PER_PROF', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'Annual_NYSAA.EXEMPT_PER'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.LEVEL4_PER', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.PCT_EXEMPT_TEST', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Inexperienced_Teachers_and_Principals.PER_PRINC_INEXP', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_MATH.PCT_TESTED', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'ACC_EM_Participation_Rate.RATE', 'Annual_NYSESLAT.PER_COM', 'Annual_EM_ELA.PER_PROF', 'Annual_NYSESLAT.YEAR', 'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_NYSESLAT.NUM_EXP', 'Inexperienced_Teachers_and_Principals.PER_PRINC_LOW', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.PER_PROF', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Annual_NYSESLAT.PER_ENT', 'Inexperienced_Teachers_and_Principals.PER_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'Annual_NYSESLAT.PER_EXP', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Accountability_Status_by_Subgroup.YEAR', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'sysdiagrams.name', 'Annual_NYSAA.EXEMPT_PER', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_Regents_Exams.PER_PROF', 'Annual_EM_SCIENCE.PCT_EXEMPT_NTEST', 'ACC_HS_Participation_Rate.RATE', 'Annual_EM_SCIENCE.PCT_EXEMPT_TEST', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT'}</t>
         </is>
       </c>
       <c r="U353" t="n">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="T354" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.NUM_PRINC', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_NYSAA.TOTAL', 'Annual_NYSESLAT.TOTAL', 'Annual_Regents_Exams.NUM_PROF', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_EM_ELA.NUM_PROF', 'sysdiagrams.principal_id', 'Inexperienced_Teachers_and_Principals.NUM_PRINC_LOW'}</t>
+          <t>{'Annual_EM_ELA.TOTAL_COUNT', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.NUM_PRINC_LOW', 'Annual_NYSAA.TOTAL', 'Annual_Regents_Exams.NUM_PROF', 'Annual_NYSESLAT.TOTAL', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Annual_EM_ELA.NUM_PROF', 'Inexperienced_Teachers_and_Principals.NUM_PRINC', 'Annual_NYSAA.LEVEL3_COUNT', 'Annual_EM_MATH.TOTAL_COUNT', 'sysdiagrams.principal_id'}</t>
         </is>
       </c>
       <c r="U354" t="n">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.PER_OUT_2_YR', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.OUT_2_YR_CNT', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Postsecondary_Enrollment.OUT_2_YR_CNT', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_OUT_2_YR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U355" t="n">
@@ -28920,12 +28920,12 @@
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR'}</t>
+          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S356" t="inlineStr">
@@ -28935,7 +28935,7 @@
       </c>
       <c r="T356" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_Participation_Rate.COHORT', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.TOTAL', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.PER_OUT_2_YR', 'ACC_EM_ELP.SUBGROUP_NAME', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Postsecondary_Enrollment.OUT_2_YR_CNT', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.INSTITUTION_ID', 'Annual_NYSAA.TOTAL', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.OUT_2_YR_CNT', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.TOTAL', 'Accountability_Levels.INSTITUTION_ID', 'ACC_EM_Participation_Rate.COHORT', 'Annual_NYSESLAT.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_OUT_2_YR', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT'}</t>
         </is>
       </c>
       <c r="U356" t="n">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'Teachers_Teaching_Out_of_Certification'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
@@ -29000,22 +29000,22 @@
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T357" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'Teachers_Teaching_Out_of_Certification.OUT_OF_CERT_DATA_REP_FLAG', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_LOW', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_Regents_Exams.YEAR', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'ACC_HS_ELP.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.OUT_OF_CERT_DATA_REP_FLAG', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_EM_MATH.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Annual_NYSAA.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Postsecondary_Enrollment.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_LOW', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW'}</t>
         </is>
       </c>
       <c r="U357" t="n">
@@ -29080,12 +29080,12 @@
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT'}</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -29095,7 +29095,7 @@
       </c>
       <c r="T358" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_EM_ELA.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Teachers_Teaching_Out_of_Certification.OUT_OF_CERT_DATA_REP_FLAG', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_LOW', 'Accountability_Status_by_Subgroup.YEAR', 'BOCES_and_N/RC.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_HIGH', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_Regents_Exams.YEAR', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_EM_SCIENCE.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Annual_NYSESLAT.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_HIGH', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_ELA.YEAR', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Teachers_Teaching_Out_of_Certification.OUT_OF_CERT_DATA_REP_FLAG', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'ACC_EM_Participation_Rate.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_LOW', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_Regents_Exams.YEAR', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_LOW', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_LOW', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_EM_MATH.PCT_EXEMPT_NTEST', 'Accountability_Status_by_Subgroup.YEAR', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Annual_EM_SCIENCE.YEAR', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW'}</t>
         </is>
       </c>
       <c r="U358" t="n">
@@ -29160,7 +29160,7 @@
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29170,12 +29170,12 @@
       </c>
       <c r="S359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD'}</t>
+          <t>{'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_Regents_Exams.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_NYSAA.TOTAL', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_LOW', 'Annual_NYSESLAT.TOTAL', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_MATH.TOTAL_COUNT', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'sysdiagrams.name', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH'}</t>
+          <t>{'Annual_EM_ELA.TOTAL_COUNT', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_LOW', 'Annual_NYSAA.TOTAL', 'Annual_NYSESLAT.TOTAL', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_Regents_Exams.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT_HIGH', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.TOT_OUT_CERT_LOW'}</t>
         </is>
       </c>
       <c r="U359" t="n">
@@ -29240,22 +29240,22 @@
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT'}</t>
         </is>
       </c>
       <c r="T360" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.NUM_TESTED', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSAA.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR', 'Annual_Regents_Exams.NUM_LEVEL4', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Annual_EM_SCIENCE.NUM_TESTED', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_NYSAA.PROFICIENT_COUNT', 'Annual_Regents_Exams.NUM_LEVEL1', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'sysdiagrams.name', 'Annual_EM_MATH.NUM_TESTED', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT', 'Accountability_Status.YEAR', 'ACC_HS_Graduation_Rate.COHORT_LEVEL', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_ELP.LEVEL', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_NYSAA.LEVEL1_COUNT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_NYSAA.LEVEL4_COUNT', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_ELP.LEVEL', 'Annual_NYSESLAT.YEAR', 'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL1', 'Postsecondary_Enrollment.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'Annual_EM_ELA.TOTAL_SCALE_SCORES', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_HS_Core_and_Weighted_Performance.WGT_LEVEL', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.NUM_TESTED', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.COHORT_LEVEL', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.NUM_TESTED', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_SCIENCE.MEAN_SCORE', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Graduation_Rate.COHORT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_NYSAA.PROFICIENT_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'Annual_EM_ELA.LEVEL4_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'sysdiagrams.name', 'Annual_EM_MATH.TOTAL_SCALE_SCORES', 'Institution_Grouping.GROUP_NAME', 'Annual_Regents_Exams.NUM_LEVEL4', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_SCIENCE.TOTAL_SCALE_SCORES'}</t>
         </is>
       </c>
       <c r="U360" t="n">
@@ -29310,7 +29310,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Total_Cohort_Regents_Exams'}</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
@@ -29320,12 +29320,12 @@
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
+          <t>{'Total_Cohort_Regents_Exams.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S361" t="inlineStr">
@@ -29335,7 +29335,7 @@
       </c>
       <c r="T361" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'Annual_EM_MATH.PCT_TESTED', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_EM_ELA.PCT_TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Accountability_Levels.ENTITY_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_Regents_Exams.NUM_LEVEL4', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL2_PER', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_ELA.LEVEL1_%TESTED', 'ACC_HS_Graduation_Rate.COHORT', 'Annual_EM_MATH.LEVEL5_%TESTED', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_NYSAA.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_EM_ELP.LEVEL', 'Annual_NYSAA.LEVEL1_PER', 'BOCES_and_N/RC.DISTRICT_NAME', 'Annual_NYSAA.LEVEL3_PER', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Graduation_Rate.COHORT_COUNT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSAA.LEVEL1_PER', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.PROF_%COHORT', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Accountability_Levels.ENTITY_NAME', 'Total_Cohort_Regents_Exams.TEST_%COHORT', 'Annual_NYSESLAT.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_Regents_Exams.YEAR', 'Annual_EM_MATH.PCT_TESTED', 'Annual_NYSAA.LEVEL2_PER', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Total_Cohort_Regents_Exams.LEVEL3_%COHORT', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Participation_Rate.COHORT', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL5_%TESTED', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_Regents_Exams.PER_LEVEL4', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_%COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL1_%COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'Total_Cohort_Regents_Exams.NTEST_%COHORT', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSESLAT.PER_ENT', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.NUM_LEVEL4', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_TESTED'}</t>
         </is>
       </c>
       <c r="U361" t="n">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29480,7 +29480,7 @@
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'Institution_Grouping', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Postsecondary_Enrollment', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Postsecondary_Enrollment', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="T363" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_Regents_Exams.INSTITUTION_ID', 'Accountability_Levels.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_EM_ELA.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_Regents_Exams.ASSMNT_FLAG', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Accountability_Status.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Levels.SUBGROUP_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_NYSAA.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_Regents_Exams.INSTITUTION_ID', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.ASSMNT_FLAG', 'Annual_NYSESLAT.YEAR', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_ELA.TOTAL_COUNT', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_MATH.TOTAL_COUNT', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_HS_ELP.YEAR', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Annual_EM_SCIENCE.NUM_TESTED', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSAA.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U363" t="n">
@@ -29560,22 +29560,22 @@
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'Inexperienced_Teachers_and_Principals', 'sysdiagrams', 'Annual_EM_SCIENCE', 'Teachers_Teaching_Out_of_Certification', 'ACC_EM_Chronic_Absenteeism', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_HS_Participation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_HS_ELP', 'ACC_HS_Chronic_Absenteeism', 'Expenditures_per_Pupil', 'Accountability_Levels', 'Annual_Regents_Exams', 'ACC_EM_Participation_Rate', 'ACC_EM_ELP', 'Annual_NYSAA', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Status_by_Subgroup', 'Annual_EM_MATH', 'Annual_EM_ELA', 'Accountability_Status', 'BOCES_and_N/RC', 'Total_Cohort_Regents_Exams', 'Annual_NYSESLAT'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_EM_Core_and_Weighted_Performance', 'ACC_EM_Chronic_Absenteeism', 'Annual_EM_MATH', 'sysdiagrams', 'Annual_NYSAA', 'ACC_HS_Participation_Rate', 'Annual_EM_ELA', 'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification', 'Annual_EM_SCIENCE', 'ACC_EM_Participation_Rate', 'Total_Cohort_Regents_Exams', 'ACC_EM_NYSESLAT_for_Participation', 'Inexperienced_Teachers_and_Principals', 'Accountability_Status_by_Subgroup', 'Expenditures_per_Pupil', 'ACC_HS_ELP', 'Accountability_Status', 'ACC_EM_ELP', 'Annual_Regents_Exams', 'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance', 'Accountability_Levels', 'Annual_NYSESLAT'}</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR'}</t>
+          <t>{'Postsecondary_Enrollment.YEAR', 'Institution_Grouping.GROUP_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD'}</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.BOCES_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Accountability_Levels.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'Annual_NYSESLAT.ENTITY_NAME', 'Postsecondary_Enrollment.PER_OUT_2_YR', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_MATH.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status.YEAR', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Annual_EM_ELA.ASSESSMENT_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_NYSAA.ENTITY_NAME', 'Annual_EM_ELA.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Levels.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Annual_NYSESLAT.YEAR', 'Accountability_Status.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'Annual_EM_SCIENCE.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSAA.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Postsecondary_Enrollment.PER_OUT_2_YR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'ACC_HS_ELP.YEAR', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_NYSAA.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_MATH.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'Accountability_Levels.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT'}</t>
         </is>
       </c>
       <c r="U364" t="n">
@@ -29640,7 +29640,7 @@
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29655,7 +29655,7 @@
       </c>
       <c r="T365" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Sites.Site_ID', 'tbl_Stations.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations.Station', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Transect_ID', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="U365" t="n">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29880,7 +29880,7 @@
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29960,7 +29960,7 @@
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29975,7 +29975,7 @@
       </c>
       <c r="T369" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Stations.SSMA_TimeStamp', 'tbl_Stations_Updates.Update_ID', 'tbl_Events.Event_ID', 'tbl_Transect.SSMA_TimeStamp', 'tbl_Stations.Station_ID', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Observations.Observation_ID', 'tbl_Observations.Event_ID', '~TMPCLP650861.Habitat_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Habitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.SSMA_TimeStamp', 'tbl_Stations.Long_final', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Stations_Updates.Update_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Habitat.Event_ID', 'tbl_Transect.SSMA_TimeStamp', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Stations.Station_ID', 'tbl_Stations_Updates.SSMA_TimeStamp', 'tbl_Stations.Long_final', 'tbl_Stations.Station', '~TMPCLP650861.Habitat_ID', 'tbl_Plot.Station_ID', 'tbl_Observations.Observation_ID', 'tbl_Events.Event_ID', 'tbl_Stations.SSMA_TimeStamp', 'xref_Event_Contacts.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="U369" t="n">
@@ -30040,7 +30040,7 @@
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -30120,12 +30120,12 @@
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.City', 'tlu_Contacts.Zip_Code'}</t>
+          <t>{'tlu_Contacts.Zip_Code', 'tlu_Contacts.City'}</t>
         </is>
       </c>
       <c r="S371" t="inlineStr">
@@ -30200,12 +30200,12 @@
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample'}</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -30215,7 +30215,7 @@
       </c>
       <c r="T372" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Updated_by', 'tbl_Stations.Station_ID', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Observations.Observation_ID', 'tbl_Events.Entered_by', 'tbl_Stations_Updates.Updated_by', 'tbl_Stations_UTMs.Station_ID', 'tbl_Event_Details.Event_Details_ID', 'tbl_Plot.Station_ID', 'tbl_Events.Start_Time', 'tbl_Habitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Events.Verified_date', 'tbl_Events.Certified_by', 'tbl_Events.Verified', 'tbl_Event_Details.Event_ID', 'tbl_Density.Event_ID', 'tbl_Stations.Station', 'tbl_Observations.Event_ID', 'tbl_Stations_UTMs.Updated_by', 'tbl_Events.Updated_by'}</t>
+          <t>{'tbl_Events.Start_Time', 'tbl_Stations_UTMs.Station_ID', 'tbl_Habitat.Event_ID', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Events.Entered_by', 'tbl_Events.Certified_by', 'tbl_Stations.Station_ID', 'tbl_Events.Updated_by', 'tbl_Stations_Updates.Updated_by', 'tbl_Stations.Station', 'tbl_Events.Verified', 'tbl_Event_Details.Event_Details_ID', 'tbl_Stations_UTMs.Updated_by', 'tbl_Plot.Station_ID', 'tbl_Observations.Observation_ID', 'tbl_Transect.Updated_by', 'xref_Event_Contacts.Event_ID', 'tbl_Density.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Events.Verified_date'}</t>
         </is>
       </c>
       <c r="U372" t="n">
@@ -30270,7 +30270,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30295,7 +30295,7 @@
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>{'~TMPCLP650861.Habitat_ID', 'tbl_Detections.Detection', 'tbl_Habitat.Habitat_ID', 'tbl_Transect.Transect_Type', 'tbl_Observations.Observation_ID', 'tbl_Detections.Observation_ID'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'tbl_Transect.Transect_Type', 'tbl_Detections.Detection', 'tbl_Habitat.Habitat_ID', 'tbl_Detections.Observation_ID', '~TMPCLP650861.Habitat_ID'}</t>
         </is>
       </c>
       <c r="U373" t="n">
@@ -30350,7 +30350,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -30360,7 +30360,7 @@
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="T374" t="inlineStr">
         <is>
-          <t>{'~TMPCLP650861.Habitat_ID', 'tbl_Habitat.Habitat_ID', '~TMPCLP650861.Noted_Canopy_Spp_Common', 'tbl_Habitat.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tbl_Observations.Observation_ID', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tbl_Detections.Observation_ID', 'tlu_Species.Species_Code'}</t>
+          <t>{'tbl_Observations.Observation_ID', '~TMPCLP650861.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tlu_Species.Species_Code', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tbl_Habitat.Habitat_ID', 'tbl_Detections.Observation_ID', '~TMPCLP650861.Habitat_ID'}</t>
         </is>
       </c>
       <c r="U374" t="n">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30455,7 +30455,7 @@
       </c>
       <c r="T375" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Event_ID', 'xref_Event_Contacts.Event_ID', '~TMPCLP650861.Event_ID', 'tbl_Density.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Observation_ID', 'tbl_Detections.Observation_ID'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'tbl_Habitat.Event_ID', '~TMPCLP650861.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Density.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Detections.Observation_ID'}</t>
         </is>
       </c>
       <c r="U375" t="n">
@@ -30510,7 +30510,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -30520,7 +30520,7 @@
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30600,7 +30600,7 @@
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30615,7 +30615,7 @@
       </c>
       <c r="T377" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Updated_by', 'tbl_Stations_UTMs.Updated_by', '~TMPCLP650861.Understory_Comp', 'tbl_Events.Updated_by'}</t>
+          <t>{'tbl_Events.Updated_by', 'tbl_Stations_UTMs.Updated_by', '~TMPCLP650861.Understory_Comp', 'tbl_Transect.Updated_by'}</t>
         </is>
       </c>
       <c r="U377" t="n">
@@ -30680,12 +30680,12 @@
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Rain', 'tbl_Event_Details.Wind', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Gust', 'tbl_Events.Updated_by', 'tbl_Events.Entered_by'}</t>
+          <t>{'tbl_Event_Details.Cloud', 'tbl_Event_Details.Wind', 'tbl_Events.Entered_by', 'tbl_Events.Updated_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Gust'}</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="T378" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_Updates.Updated_by', 'tbl_Db_Meta.Updated_By', 'tbl_Stations_Updates.Update_ID', 'tbl_Transect.Updated_by', 'tbl_Stations.Updated_by', 'xref_Species_Alternate_Names.Update_By', 'tbl_Locations.Updated_Date', 'tbl_Stations_UTMs.Updated_by'}</t>
+          <t>{'tbl_Stations.Updated_by', 'tbl_Stations_Updates.Update_ID', 'tbl_Db_Meta.Updated_By', 'tbl_Transect.Updated_by', 'tbl_Stations_Updates.Updated_by', 'tbl_Locations.Updated_Date', 'xref_Species_Alternate_Names.Update_By', 'tbl_Stations_UTMs.Updated_by'}</t>
         </is>
       </c>
       <c r="U378" t="n">
@@ -30760,7 +30760,7 @@
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30775,7 +30775,7 @@
       </c>
       <c r="T379" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', 'tbl_Observations.Observation_ID'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U379" t="n">
@@ -30840,7 +30840,7 @@
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30855,7 +30855,7 @@
       </c>
       <c r="T380" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', 'tbl_Detections.Detection_ID'}</t>
+          <t>{'tbl_Detections.Detection_ID', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U380" t="n">
@@ -30910,7 +30910,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>{'tbl_Detections', 'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Detections', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30930,12 +30930,12 @@
       </c>
       <c r="S381" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Species_ID', 'tbl_Detections.Observation_ID', 'tbl_Observations.Observation_ID', 'tbl_Observations.Species_ID'}</t>
+          <t>{'tbl_Detections.Observation_ID', 'tbl_Observations.Observation_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID'}</t>
         </is>
       </c>
       <c r="T381" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', '~TMPCLP650861.Noted_Canopy_Spp_Common', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'sysdiagrams.name'}</t>
+          <t>{'sysdiagrams.name', '~TMPCLP650861.Noted_Canopy_Spp_Common', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U381" t="n">
@@ -30990,7 +30990,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'xref_Species_Alternate_Names'}</t>
+          <t>{'xref_Species_Alternate_Names', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -31000,12 +31000,12 @@
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Family'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Alternate_Name'}</t>
         </is>
       </c>
       <c r="S382" t="inlineStr">
@@ -31015,7 +31015,7 @@
       </c>
       <c r="T382" t="inlineStr">
         <is>
-          <t>{'~TMPCLP650861.Noted_Canopy_Spp_Common', 'sysdiagrams.name'}</t>
+          <t>{'sysdiagrams.name', '~TMPCLP650861.Noted_Canopy_Spp_Common'}</t>
         </is>
       </c>
       <c r="U382" t="n">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="T383" t="inlineStr">
         <is>
-          <t>{'tbl_Plot.Stream', 'tlu_Enumerations.Enum_Description', 'tbl_Transect.Transect_Type', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Alternate_Type', 'tlu_Species.Origin'}</t>
+          <t>{'tbl_Transect.Transect_Type', 'tbl_Plot.Stream', 'tlu_Enumerations.Enum_Description', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Alternate_Type', 'tlu_Species.Origin'}</t>
         </is>
       </c>
       <c r="U383" t="n">
@@ -31160,7 +31160,7 @@
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31170,7 +31170,7 @@
       </c>
       <c r="S384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations_UTMs.X_final'}</t>
+          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Y_final'}</t>
         </is>
       </c>
       <c r="T384" t="inlineStr">
@@ -31240,7 +31240,7 @@
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31310,7 +31310,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -31320,7 +31320,7 @@
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Stations_Updates', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31330,12 +31330,12 @@
       </c>
       <c r="S386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}</t>
+          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="T386" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Desc', 'tbl_Stations.Station', 'sysdiagrams.name', 'tbl_Locations.Loc_Name'}</t>
+          <t>{'tbl_Sites.Site_Desc', 'sysdiagrams.name', 'tbl_Locations.Loc_Name', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U386" t="n">
@@ -31400,7 +31400,7 @@
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31480,7 +31480,7 @@
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31495,7 +31495,7 @@
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>{'~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'sysdiagrams.name'}</t>
+          <t>{'sysdiagrams.name', '~TMPCLP650861.Noted_Canopy_Spp_Scientific'}</t>
         </is>
       </c>
       <c r="U388" t="n">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="T389" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Geo_Datum', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Coord_Syst', 'tbl_Stations_UTMs.Coord_Units'}</t>
+          <t>{'tbl_Stations_UTMs.Coord_Units', 'tbl_Stations_UTMs.Coord_Syst', 'tbl_Stations.Geo_Datum', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U389" t="n">
@@ -31640,7 +31640,7 @@
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31735,7 +31735,7 @@
       </c>
       <c r="T391" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Entered_date', 'tbl_Habitat.Event_ID', '~TMPCLP650861.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Gust'}</t>
+          <t>{'tbl_Habitat.Event_ID', '~TMPCLP650861.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Gust', 'tbl_Events.Entered_date'}</t>
         </is>
       </c>
       <c r="U391" t="n">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P392" t="inlineStr">
@@ -31800,7 +31800,7 @@
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', '~TMPCLP650861', 'tlu_Species', 'sysdiagrams', 'xref_Species_Alternate_Names', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Event_Details', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31810,12 +31810,12 @@
       </c>
       <c r="S392" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Transect.Location_ID'}</t>
+          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T392" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U392" t="n">
@@ -31870,7 +31870,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
@@ -31880,7 +31880,7 @@
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', '~TMPCLP650861', 'tlu_Species', 'sysdiagrams', 'xref_Species_Alternate_Names', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Event_Details', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31895,7 +31895,7 @@
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U393" t="n">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tlu_Species', 'tbl_Event_Details', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -31960,22 +31960,22 @@
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Species_Code', 'tbl_Event_Details.Rain', 'tlu_Species.Family'}</t>
+          <t>{'tbl_Event_Details.Rain', 'tlu_Species.Family', 'tlu_Species.Species_Code'}</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="T394" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_Updates.Updated_date', 'tbl_Locations.SSMA_TimeStamp', 'tlu_Species.Scientific_Name', 'tbl_Transect.SSMA_TimeStamp'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tbl_Transect.SSMA_TimeStamp', 'tbl_Stations_Updates.Updated_date', 'tbl_Locations.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U394" t="n">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tlu_Species', 'xref_Event_Contacts', 'tbl_Observations'}</t>
+          <t>{'tlu_Contacts', 'tbl_Observations', 'xref_Event_Contacts', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -32040,7 +32040,7 @@
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -32050,12 +32050,12 @@
       </c>
       <c r="S395" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Observations.Event_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Observations.Event_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="T395" t="inlineStr">
         <is>
-          <t>{'~TMPCLP650861.Noted_Canopy_Spp_Common', 'tbl_Habitat.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'sysdiagrams.name', 'tbl_Habitat.Noted_Canopy_Spp_Scientific'}</t>
+          <t>{'sysdiagrams.name', '~TMPCLP650861.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Habitat.Noted_Canopy_Spp_Scientific'}</t>
         </is>
       </c>
       <c r="U395" t="n">
@@ -32110,7 +32110,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Events', 'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -32120,22 +32120,22 @@
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S396" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="T396" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID', '~TMPCLP650861.Noted_Canopy_Spp_Common', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Habitat.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'sysdiagrams.name', 'tbl_Observations.Observation_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_Code', 'tbl_Detections.Observation_ID'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tlu_Species.Scientific_Name', 'sysdiagrams.name', 'tbl_Observations.Observation_ID', '~TMPCLP650861.Noted_Canopy_Spp_Common', 'tbl_Stations_UTMs.Station_ID', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tlu_Species.Species_Code', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Detections.Observation_ID', 'xref_Species_Alternate_Names.Species_ID'}</t>
         </is>
       </c>
       <c r="U396" t="n">
@@ -32190,7 +32190,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Stations'}</t>
         </is>
       </c>
       <c r="P397" t="inlineStr">
@@ -32200,12 +32200,12 @@
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S397" t="inlineStr">
@@ -32215,7 +32215,7 @@
       </c>
       <c r="T397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs.SSMA_TimeStamp', 'tbl_Events.Event_ID', 'tbl_Sites.Site_ID', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Sites.Site_Name', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Habitat.Event_ID', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID', 'tbl_Density.Event_ID', 'sysdiagrams.name', 'tbl_Transect.Location_ID', 'tbl_Observations.Event_ID', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Habitat.Event_ID', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Stations_UTMs.SSMA_TimeStamp', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Plot.Station_ID', 'sysdiagrams.name', 'tbl_Events.Event_ID', 'tbl_Density.Event_ID', 'tbl_Transect.Location_ID', 'tbl_Observations.Event_ID', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="U397" t="n">
@@ -32280,12 +32280,12 @@
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Stations.Lat_final'}</t>
+          <t>{'tbl_Stations.Lat_final', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="T398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs.Coord_upd', 'tbl_Stations.Lat_Dir', 'tbl_Stations_Updates.Previous_Lat', 'tbl_Locations.Loc_Name', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Y_orig', 'tbl_Stations_UTMs.Y_final', 'sysdiagrams.name', 'tbl_Plot.Topo_Position', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Stations.Lat_Dir', 'sysdiagrams.name', 'tbl_Plot.Topo_Position', 'tbl_Stations_Updates.Previous_Lat', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Coord_upd', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations_UTMs.Y_orig'}</t>
         </is>
       </c>
       <c r="U398" t="n">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Events', 'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -32360,7 +32360,7 @@
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32370,12 +32370,12 @@
       </c>
       <c r="S399" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="T399" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', 'tbl_Stations.Station', 'tbl_Plot.Station_ID', 'tbl_Observations.Observation_ID'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tbl_Observations.Observation_ID', 'tbl_Detections.Detection', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U399" t="n">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Events', 'tlu_Species', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -32440,7 +32440,7 @@
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32450,12 +32450,12 @@
       </c>
       <c r="S400" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="T400" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'sysdiagrams.name'}</t>
+          <t>{'sysdiagrams.name', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U400" t="n">
@@ -32520,7 +32520,7 @@
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Events', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', 'tbl_Observations', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density', 'tbl_Stations', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Species', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'tbl_Observations', 'tbl_Sites', 'tbl_Events', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32530,7 +32530,7 @@
       </c>
       <c r="S401" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Organization', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.Organization', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID'}</t>
         </is>
       </c>
       <c r="T401" t="inlineStr">
@@ -32590,7 +32590,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tlu_Species', 'tbl_Habitat', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tbl_Habitat', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -32600,22 +32600,22 @@
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Transect', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Density', 'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Event_Details', 'tbl_Locations', 'tbl_Stations_Updates', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Stations', 'xref_Event_Contacts', 'tbl_Sites', 'tbl_Stations_UTMs', 'tbl_Locations', 'tbl_Event_Details', 'tbl_Transect', 'tbl_Plot', 'tbl_Density', 'tlu_Contacts', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Habitat.Canopy_Height', 'tlu_Species.Scientific_Name', 'tbl_Observations.Species_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tbl_Habitat.Canopy_Height', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S402" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Habitat.Event_ID'}</t>
         </is>
       </c>
       <c r="T402" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Habitat', '~TMPCLP650861.Noted_Canopy_Spp_Common', '~TMPCLP650861.Canopy_Height', 'tbl_Habitat.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'sysdiagrams.name', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', '~TMPCLP650861.Canopy_Comp'}</t>
+          <t>{'~TMPCLP650861.Canopy_Height', 'sysdiagrams.name', '~TMPCLP650861.Noted_Canopy_Spp_Common', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tbl_Habitat.Noted_Canopy_Spp_Common', '~TMPCLP650861.Canopy_Comp', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="U402" t="n">
@@ -32670,7 +32670,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tlu_Species', 'xref_Event_Contacts', 'tbl_Events', 'tlu_Contacts', 'tbl_Transect', 'tbl_Locations', 'tbl_Observations', 'tbl_Sites', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Events', 'xref_Species_Alternate_Names', 'tlu_Species', 'tbl_Locations', 'tbl_Transect', 'tbl_Stations', 'tlu_Contacts', 'tbl_Observations', 'xref_Event_Contacts', 'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -32680,12 +32680,12 @@
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Stations_Updates', 'tbl_Event_Details', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Habitat', 'tbl_Density'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'tbl_Stations_UTMs', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Event_Details', 'tbl_Plot', 'tbl_Density', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Family', 'tbl_Events.Event_Notes', 'tbl_Transect.Transect_Type', 'tbl_Locations.Island', 'tbl_Stations.Station_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Transect', 'tbl_Observations.Species_ID', 'tbl_Stations.Station', 'tbl_Locations.Location_ID', 'tbl_Stations.Transect_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Transect.Transect_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID', 'tbl_Sites.Site_Name', 'tbl_Stations.Lat_final', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Locations.Loc_Name', 'tbl_Transect.Location_ID', 'tbl_Observations.Event_ID', 'tlu_Contacts.Last_Name', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Transect.Transect', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Sites.Site_Name', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Events.Station_ID', 'tbl_Transect.Transect_Type', 'tbl_Stations.Lat_final', 'tbl_Transect.Transect_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Site_ID', 'tbl_Events.Event_Notes', 'tlu_Contacts.Last_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="T403" t="inlineStr">
         <is>
-          <t>{'~TMPCLP650861.Noted_Canopy_Spp_Common', '~TMPCLP650861.Event_ID', 'tbl_Observations.Observation_ID', 'tbl_Events.Verified_by', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tbl_Transect.Updated_Notes', 'tbl_Stations_Updates.Updated_by', 'tbl_Stations_Updates.Updated_notes', 'tlu_Species.TSN', 'tbl_Stations.Lat_Dir', 'tbl_Event_Details.Event_Details_ID', 'tbl_Stations_UTMs.Station_ID', 'tlu_Species.Habitat', 'tbl_Habitat.Event_ID', 'tbl_Sites.Site_Notes', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tbl_Density.Event_ID', 'tbl_Event_Details.Event_ID', 'sysdiagrams.name', 'tlu_Contacts.Contact_Notes', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Acc_Notes', 'tbl_Events.QA_notes', 'tbl_Events.Entered_by', 'tbl_Events.SSMA_TimeStamp', 'tbl_Stations_Updates.Previous_Lat', 'tbl_Locations.Loc_Notes', 'tbl_Detections.Observation_ID', 'tlu_Species.Species_Code'}</t>
+          <t>{'tbl_Stations_Updates.Updated_notes', 'tbl_Events.QA_notes', 'tbl_Stations_UTMs.Station_ID', 'tbl_Habitat.Event_ID', '~TMPCLP650861.Noted_Canopy_Spp_Scientific', 'tbl_Events.SSMA_TimeStamp', 'tbl_Detections.Observation_ID', 'tbl_Event_Details.Event_Details_ID', 'tlu_Species.Habitat', 'tbl_Stations.Lat_Dir', 'tbl_Observations.Observation_ID', 'tbl_Transect.Updated_Notes', 'tbl_Stations_Updates.Previous_Lat', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tbl_Locations.Loc_Notes', '~TMPCLP650861.Noted_Canopy_Spp_Common', 'tbl_Stations_Updates.Station_ID', '~TMPCLP650861.Event_ID', 'tbl_Events.Verified_by', 'tbl_Events.Entered_by', 'tbl_Stations_Updates.Updated_by', 'tbl_Sites.Site_Notes', 'sysdiagrams.name', 'tlu_Species.TSN', 'tlu_Species.Species_Code', 'tlu_Contacts.Contact_Notes', 'tbl_Stations_UTMs.Acc_Notes', 'tbl_Density.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="U403" t="n">
@@ -32750,7 +32750,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tlu_Species', 'xref_Event_Contacts', 'tbl_Events', 'tlu_Contacts', 'tbl_Transect', 'tbl_Locations', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tlu_Species', 'tbl_Locations', 'tbl_Transect', 'tbl_Stations', 'tbl_Observations', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
@@ -32760,7 +32760,7 @@
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>{'sysdiagrams', 'tlu_Enumerations', 'tbl_Detections', 'tbl_Stations_Updates', 'tbl_Event_Details', 'tbl_Db_Meta', 'tbl_Stations_UTMs', 'tbl_Plot', '~TMPCLP650861', 'tbl_Sites', 'tbl_Habitat', 'tbl_Density', 'xref_Species_Alternate_Names'}</t>
+          <t>{'tbl_Stations_Updates', 'tbl_Habitat', 'tbl_Stations_UTMs', 'xref_Species_Alternate_Names', '~TMPCLP650861', 'sysdiagrams', 'tlu_Enumerations', 'tbl_Db_Meta', 'tbl_Event_Details', 'tbl_Plot', 'tbl_Density', 'tbl_Sites', 'tbl_Detections'}</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32770,12 +32770,12 @@
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Events.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Transect.Location_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Station_ID', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Contacts.Contact_ID', 'tbl_Locations.Location_ID', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', 'tbl_Sites.Site_Name', 'sysdiagrams.name', 'tbl_Locations.Loc_Name'}</t>
+          <t>{'sysdiagrams.name', 'tbl_Sites.Site_Name', 'tbl_Detections.Detection', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -32930,7 +32930,7 @@
       </c>
       <c r="S406" t="inlineStr">
         <is>
-          <t>{'OPEX.PayeeStree', 'OPEX.PayeeZip', 'OUDP.Name', 'OPEX.PayCountry', 'OUDP.Code', 'OPEX.PayeeCity', 'OPEX.Department', 'OPEX.PayeeName', 'OPEX.PayeeState'}</t>
+          <t>{'OPEX.Department', 'OPEX.PayeeName', 'OPEX.PayeeStree', 'OPEX.PayeeZip', 'OPEX.PayeeCity', 'OPEX.PayCountry', 'OUDP.Code', 'OPEX.PayeeState', 'OUDP.Name'}</t>
         </is>
       </c>
       <c r="T406" t="inlineStr">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="P407" t="inlineStr">
         <is>
-          <t>{'CHO1', 'OCHO'}</t>
+          <t>{'OCHO', 'CHO1'}</t>
         </is>
       </c>
       <c r="Q407" t="inlineStr">
@@ -33170,7 +33170,7 @@
       </c>
       <c r="S409" t="inlineStr">
         <is>
-          <t>{'ORCT.Address', 'ORCT.DocCurr', 'ORCT.CreateDate', 'ORCT.CardName', 'ORCT.CardCode', 'ORCT.TrsfrSumFC'}</t>
+          <t>{'ORCT.DocCurr', 'ORCT.Address', 'ORCT.CardCode', 'ORCT.TrsfrSumFC', 'ORCT.CardName', 'ORCT.CreateDate'}</t>
         </is>
       </c>
       <c r="T409" t="inlineStr">
@@ -33250,7 +33250,7 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>{'RCT1.AcctNum', 'ORCT.WTOnhldPst', 'ORCT.DocNum', 'ORCT.CheckSumFC', 'RCT1.CountryCod', 'RCT1.DocNum'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.AcctNum', 'ORCT.DocNum', 'RCT1.CountryCod', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="T410" t="inlineStr">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>{'ORCT', 'RCT3'}</t>
+          <t>{'RCT3', 'ORCT'}</t>
         </is>
       </c>
       <c r="Q412" t="inlineStr">
@@ -33410,7 +33410,7 @@
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t>{'RCT3.DocNum', 'RCT3.FirstSum', 'ORCT.DocNum'}</t>
+          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="T412" t="inlineStr">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>{'OCRH.DepNum', 'OCRH.DeposDate', 'OCRH.CardCode', 'OCRH.RctAbs'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.DepNum', 'OCRH.CardCode', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
@@ -33570,7 +33570,7 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t>{'OCTG.VATFirst', 'OCTG.ExtraDays', 'OCTG.PymntGroup', 'OCTG.InstNum'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.ExtraDays', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
         </is>
       </c>
       <c r="T414" t="inlineStr">
@@ -33635,7 +33635,7 @@
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRG'}</t>
+          <t>{'OCRG', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q415" t="inlineStr">
@@ -33650,7 +33650,7 @@
       </c>
       <c r="S415" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupCode', 'OCRG.GroupName', 'OCRD.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRD.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="T415" t="inlineStr">
@@ -33730,7 +33730,7 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t>{'OCPR.Name', 'OCPR.Address', 'OCPR.Position', 'OCPR.E_MailL', 'OCPR.Cellolar'}</t>
+          <t>{'OCPR.Position', 'OCPR.Cellolar', 'OCPR.Address', 'OCPR.E_MailL', 'OCPR.Name'}</t>
         </is>
       </c>
       <c r="T416" t="inlineStr">
@@ -33810,7 +33810,7 @@
       </c>
       <c r="S417" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OSLP.Commission'}</t>
+          <t>{'OSLP.Commission', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="T417" t="inlineStr">
@@ -33875,7 +33875,7 @@
       </c>
       <c r="P418" t="inlineStr">
         <is>
-          <t>{'OSLP', 'OCOG'}</t>
+          <t>{'OCOG', 'OSLP'}</t>
         </is>
       </c>
       <c r="Q418" t="inlineStr">
@@ -33890,7 +33890,7 @@
       </c>
       <c r="S418" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupCode', 'OSLP.SlpName', 'OSLP.GroupCode', 'OCOG.GroupName'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupName', 'OCOG.GroupCode'}</t>
         </is>
       </c>
       <c r="T418" t="inlineStr">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="P419" t="inlineStr">
         <is>
-          <t>{'OSLP', 'OCOG'}</t>
+          <t>{'OCOG', 'OSLP'}</t>
         </is>
       </c>
       <c r="Q419" t="inlineStr">
@@ -33970,7 +33970,7 @@
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupCode', 'OCOG.GroupName', 'OSLP.Mobil', 'OSLP.SlpName', 'OSLP.GroupCode', 'OSLP.Email'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.Mobil', 'OCOG.GroupCode', 'OCOG.GroupName', 'OSLP.Email', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="T419" t="inlineStr">
@@ -34035,7 +34035,7 @@
       </c>
       <c r="P420" t="inlineStr">
         <is>
-          <t>{'OCRD', 'CRD1'}</t>
+          <t>{'CRD1', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q420" t="inlineStr">
@@ -34050,7 +34050,7 @@
       </c>
       <c r="S420" t="inlineStr">
         <is>
-          <t>{'OCRD.PymCode', 'CRD1.CardCode', 'OCRD.CDPNum', 'OCRD.CardCode', 'CRD1.TaxCode'}</t>
+          <t>{'OCRD.PymCode', 'CRD1.CardCode', 'OCRD.CardCode', 'OCRD.CDPNum', 'CRD1.TaxCode'}</t>
         </is>
       </c>
       <c r="T420" t="inlineStr">
@@ -34130,7 +34130,7 @@
       </c>
       <c r="S421" t="inlineStr">
         <is>
-          <t>{'OCLG.CreateDate', 'OCLG.Details', 'OCLG.CntctTime', 'OCLG.CntctDate', 'OCLG.ClgCode'}</t>
+          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
         </is>
       </c>
       <c r="T421" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRB'}</t>
+          <t>{'OCRB', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q422" t="inlineStr">
@@ -34210,7 +34210,7 @@
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>{'OCRB.CardCode', 'OCRB.Branch', 'OCRD.CardCode', 'OCRD.Country', 'OCRD.BankCode', 'OCRB.Account', 'OCRB.BankCode', 'OCRB.Country', 'OCRB.City', 'OCRD.City', 'OCRD.CardName'}</t>
+          <t>{'OCRB.BankCode', 'OCRB.CardCode', 'OCRB.Country', 'OCRD.CardCode', 'OCRD.BankCode', 'OCRB.Branch', 'OCRD.City', 'OCRB.City', 'OCRD.Country', 'OCRD.CardName', 'OCRB.Account'}</t>
         </is>
       </c>
       <c r="T422" t="inlineStr">
@@ -34290,7 +34290,7 @@
       </c>
       <c r="S423" t="inlineStr">
         <is>
-          <t>{'OCRD.Balance', 'OCRD.PymCode', 'OCRD.Currency'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.Balance', 'OCRD.Currency'}</t>
         </is>
       </c>
       <c r="T423" t="inlineStr">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>{'TGG1.Position', 'OTGG.TargetCode', 'TGG1.E_Mail', 'TGG1.TargetCode', 'TGG1.LicTradNum', 'OTGG.TargetType'}</t>
+          <t>{'TGG1.Position', 'TGG1.E_Mail', 'TGG1.TargetCode', 'OTGG.TargetType', 'TGG1.LicTradNum', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="T424" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="P425" t="inlineStr">
         <is>
-          <t>{'OACT', 'JDT1'}</t>
+          <t>{'JDT1', 'OACT'}</t>
         </is>
       </c>
       <c r="Q425" t="inlineStr">
@@ -34530,7 +34530,7 @@
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>{'JDT1.DueDate', 'JDT1.Credit', 'JDT1.Debit'}</t>
+          <t>{'JDT1.Debit', 'JDT1.Credit', 'JDT1.DueDate'}</t>
         </is>
       </c>
       <c r="T426" t="inlineStr">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t>{'BGT1.AcctCode', 'OACT.AcctName', 'BGT1.CredLTotal', 'BGT1.DebLTotal', 'OACT.AcctCode'}</t>
+          <t>{'BGT1.CredLTotal', 'OACT.AcctCode', 'BGT1.DebLTotal', 'BGT1.AcctCode', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T427" t="inlineStr">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'OACG.Name', 'OACT.CurrTotal', 'OACT.Category', 'OACG.AbsId'}</t>
+          <t>{'OACT.Category', 'OACT.CurrTotal', 'OACG.Name', 'OACG.AbsId', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T428" t="inlineStr">
@@ -34770,7 +34770,7 @@
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>{'TAX1.VatPercent', 'OTAX.AbsEntry', 'TAX1.AbsEntry', 'OTAX.SrcObjAbs', 'TAX1.TaxCode', 'TAX1.VatSum'}</t>
+          <t>{'TAX1.VatPercent', 'OTAX.AbsEntry', 'TAX1.VatSum', 'TAX1.TaxCode', 'TAX1.AbsEntry', 'OTAX.SrcObjAbs'}</t>
         </is>
       </c>
       <c r="T429" t="inlineStr">
@@ -34835,7 +34835,7 @@
       </c>
       <c r="P430" t="inlineStr">
         <is>
-          <t>{'ORTT'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="Q430" t="inlineStr">
@@ -34850,7 +34850,7 @@
       </c>
       <c r="S430" t="inlineStr">
         <is>
-          <t>{'ORTT.RateDate', 'ORTT.Rate', 'ORTT.DataSource'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="T430" t="inlineStr">
@@ -35010,7 +35010,7 @@
       </c>
       <c r="S432" t="inlineStr">
         <is>
-          <t>{'OFRC.FatherNum', 'OFRC.Name'}</t>
+          <t>{'OFRC.Name', 'OFRC.FatherNum'}</t>
         </is>
       </c>
       <c r="T432" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>{'OFRC', 'FRC1'}</t>
+          <t>{'FRC1', 'OFRC'}</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr">
@@ -35090,7 +35090,7 @@
       </c>
       <c r="S433" t="inlineStr">
         <is>
-          <t>{'OFRC.CatId', 'FRC1.CatId', 'FRC1.CalMethod3', 'FRC1.CalcMethod', 'OFRC.Name', 'FRC1.CalMethod2', 'FRC1.CFWId'}</t>
+          <t>{'FRC1.CFWId', 'FRC1.CatId', 'OFRC.Name', 'FRC1.CalMethod2', 'OFRC.CatId', 'FRC1.CalcMethod', 'FRC1.CalMethod3'}</t>
         </is>
       </c>
       <c r="T433" t="inlineStr">
@@ -35170,7 +35170,7 @@
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>{'OPRJ.PrjName', 'OPRJ.ValidFrom', 'OPRJ.PrjCode'}</t>
+          <t>{'OPRJ.PrjCode', 'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
         </is>
       </c>
       <c r="T434" t="inlineStr">
@@ -35330,7 +35330,7 @@
       </c>
       <c r="S436" t="inlineStr">
         <is>
-          <t>{'CDIC._Value', 'CDIC._Key'}</t>
+          <t>{'CDIC._Key', 'CDIC._Value'}</t>
         </is>
       </c>
       <c r="T436" t="inlineStr">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="P437" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="Q437" t="inlineStr">
@@ -35410,7 +35410,7 @@
       </c>
       <c r="S437" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.DashbdCode', 'DAB1.DsbEntry'}</t>
+          <t>{'DAB1.DsbEntry', 'ODAB.DashbdCode', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T437" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="Q438" t="inlineStr">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>{'DAB1.QryName', 'ODAB.AbsEntry', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'ODAB.Status', 'DAB1.DsbEntry', 'ODAB.DashbdPath'}</t>
+          <t>{'ODAB.Status', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'DAB1.DsbEntry', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T438" t="inlineStr">
@@ -35570,7 +35570,7 @@
       </c>
       <c r="S439" t="inlineStr">
         <is>
-          <t>{'OKPS.FieldsNum', 'OKPS.KpsCode', 'OKPS.KpsName', 'OKPS.KpsType'}</t>
+          <t>{'OKPS.KpsName', 'OKPS.FieldsNum', 'OKPS.KpsCode', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="T439" t="inlineStr">
@@ -35650,7 +35650,7 @@
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResName', 'ORSC.ResGrpCod', 'ORSC.StdCost1', 'RSC4.ResCode', 'ORSC.ResType', 'ORSC.ResCode', 'RSC4.EmpID'}</t>
+          <t>{'RSC4.EmpID', 'ORSC.ResType', 'ORSC.StdCost1', 'RSC4.ResCode', 'ORSC.ResName', 'ORSC.ResGrpCod', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="T440" t="inlineStr">
@@ -35730,7 +35730,7 @@
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>{'RSC6.WeekDay', 'ORSC.ResName', 'RSC6.ResCode', 'ORSC.ResCode', 'RSC6.CapFactor1'}</t>
+          <t>{'RSC6.ResCode', 'RSC6.WeekDay', 'RSC6.CapFactor1', 'ORSC.ResName', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="T441" t="inlineStr">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t>{'OPMG.NAME', 'PMG2.AbsEntry', 'PMG2.SOLUTION', 'OPMG.AbsEntry', 'PMG2.REMARKS'}</t>
+          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.REMARKS', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="T442" t="inlineStr">
@@ -35890,7 +35890,7 @@
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>{'CPT1._Left', 'CPT1._Top', 'OCPT.AbsEntry', 'OCPT._Top', 'CPT1.AbsEntry', 'CPT1._Bottom', 'CPT1._Right', 'OCPT.Name', 'OCPT._Left'}</t>
+          <t>{'CPT1._Left', 'CPT1._Bottom', 'CPT1.AbsEntry', 'OCPT.AbsEntry', 'CPT1._Right', 'OCPT.Name', 'OCPT._Left', 'CPT1._Top', 'OCPT._Top'}</t>
         </is>
       </c>
       <c r="T443" t="inlineStr">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'HTM1.empID', 'OHTM.name', 'OHEM.firstName', 'OHEM.lastName', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.lastName', 'OHEM.empID', 'OHEM.firstName'}</t>
         </is>
       </c>
       <c r="T445" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'OHEM.salary', 'HTM1.empID', 'OHTM.name', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.salary', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T447" t="inlineStr">
@@ -36290,7 +36290,7 @@
       </c>
       <c r="S448" t="inlineStr">
         <is>
-          <t>{'OHEM.homeTel', 'OHEM.firstName', 'OHEM.lastName', 'OHEM.officeTel', 'OHEM.mobile', 'OHEM.pager'}</t>
+          <t>{'OHEM.mobile', 'OHEM.officeTel', 'OHEM.pager', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="T448" t="inlineStr">
@@ -36370,7 +36370,7 @@
       </c>
       <c r="S449" t="inlineStr">
         <is>
-          <t>{'OHEM.FNameSP', 'OHEM.SurnameSP', 'OHEM.firstName', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.SurnameSP', 'OHEM.FNameSP'}</t>
         </is>
       </c>
       <c r="T449" t="inlineStr">
@@ -36450,7 +36450,7 @@
       </c>
       <c r="S450" t="inlineStr">
         <is>
-          <t>{'OHEM.type', 'OHEM.StatusOfE', 'OHEM.lastName', 'OHEM.nChildren', 'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHEM.nChildren', 'OHTY.typeID', 'OHEM.lastName', 'OHEM.StatusOfE', 'OHEM.type', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T450" t="inlineStr">
@@ -36530,7 +36530,7 @@
       </c>
       <c r="S451" t="inlineStr">
         <is>
-          <t>{'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHTY.typeID', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T451" t="inlineStr">
@@ -36610,7 +36610,7 @@
       </c>
       <c r="S452" t="inlineStr">
         <is>
-          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsType', 'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.empID'}</t>
+          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T452" t="inlineStr">
@@ -36690,7 +36690,7 @@
       </c>
       <c r="S453" t="inlineStr">
         <is>
-          <t>{'OHEM.JTCode', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.JTCode'}</t>
         </is>
       </c>
       <c r="T453" t="inlineStr">
@@ -36770,7 +36770,7 @@
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'HTM1.empID', 'OHTM.name', 'OHEM.empID', 'HTM1.teamID', 'OHEM.VacCurYear'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.VacCurYear', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T454" t="inlineStr">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHEM.CPF', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHEM.CPF', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
@@ -36930,7 +36930,7 @@
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t>{'OHEM.InTaxLiabi', 'OHEM.type', 'OHTY.name', 'OHEM.TaxClass', 'OHEM.MunKey', 'OHTY.typeID'}</t>
+          <t>{'OHTY.typeID', 'OHEM.MunKey', 'OHEM.InTaxLiabi', 'OHEM.type', 'OHEM.TaxClass', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T456" t="inlineStr">
@@ -37010,7 +37010,7 @@
       </c>
       <c r="S457" t="inlineStr">
         <is>
-          <t>{'HEM6.empID', 'OHEM.salary', 'HEM6.roleID', 'OHEM.empID'}</t>
+          <t>{'HEM6.empID', 'OHEM.salary', 'OHEM.empID', 'HEM6.roleID'}</t>
         </is>
       </c>
       <c r="T457" t="inlineStr">
@@ -37090,7 +37090,7 @@
       </c>
       <c r="S458" t="inlineStr">
         <is>
-          <t>{'OHEM.homeCountr', 'OHEM.birthDate', 'OHEM.homeCounty', 'OHEM.homeCity', 'OHEM.jobTitle', 'OHEM.brthCountr'}</t>
+          <t>{'OHEM.homeCountr', 'OHEM.jobTitle', 'OHEM.brthCountr', 'OHEM.birthDate', 'OHEM.homeCounty', 'OHEM.homeCity'}</t>
         </is>
       </c>
       <c r="T458" t="inlineStr">
@@ -37170,7 +37170,7 @@
       </c>
       <c r="S459" t="inlineStr">
         <is>
-          <t>{'OHEM.citizenshp', 'OHEM.passportNo', 'OHEM.StatusOfP', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.passportNo', 'OHEM.StatusOfP', 'OHEM.citizenshp'}</t>
         </is>
       </c>
       <c r="T459" t="inlineStr">
@@ -37250,7 +37250,7 @@
       </c>
       <c r="S460" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.workCity', 'OHEM.emplCost', 'OHEM.homeCity'}</t>
+          <t>{'OHEM.emplCost', 'OHEM.workCity', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeCity'}</t>
         </is>
       </c>
       <c r="T460" t="inlineStr">
@@ -37330,7 +37330,7 @@
       </c>
       <c r="S461" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'HTM1.empID', 'OHEM.workCity', 'HTM1.teamID', 'OHEM.empID', 'OHEM.MunKey', 'OHEM.homeTel', 'OHEM.officeTel', 'OHTM.name', 'OHEM.homeCity'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHEM.MunKey', 'OHEM.homeCity', 'OHTM.teamID', 'OHEM.officeTel', 'HTM1.teamID', 'OHEM.workCity', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="T461" t="inlineStr">
@@ -37410,7 +37410,7 @@
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'HTM1.empID', 'OHEM.StreetNoH', 'OHEM.StreetNoW', 'OHEM.StatusOfE', 'HTM1.teamID', 'OHEM.empID', 'OHEM.StatusOfP', 'OHTM.name'}</t>
+          <t>{'OHTM.name', 'OHEM.StatusOfP', 'HTM1.empID', 'OHEM.StatusOfE', 'OHEM.empID', 'OHTM.teamID', 'OHEM.StreetNoH', 'HTM1.teamID', 'OHEM.StreetNoW'}</t>
         </is>
       </c>
       <c r="T462" t="inlineStr">
@@ -37490,7 +37490,7 @@
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t>{'OHEM.TaxOName', 'OHEM.PymMeth', 'OHEM.ExemptCurr', 'OHEM.AddiCurr'}</t>
+          <t>{'OHEM.ExemptCurr', 'OHEM.PymMeth', 'OHEM.TaxOName', 'OHEM.AddiCurr'}</t>
         </is>
       </c>
       <c r="T463" t="inlineStr">
@@ -37570,7 +37570,7 @@
       </c>
       <c r="S464" t="inlineStr">
         <is>
-          <t>{'OHEM.homeStreet', 'OHEM.homeState', 'OHEM.martStatus', 'OHEM.homeZip', 'OHEM.homeBlock', 'OHEM.lastName'}</t>
+          <t>{'OHEM.homeZip', 'OHEM.lastName', 'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.martStatus'}</t>
         </is>
       </c>
       <c r="T464" t="inlineStr">
@@ -37650,7 +37650,7 @@
       </c>
       <c r="S465" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.OnOrder'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T465" t="inlineStr">
@@ -37730,7 +37730,7 @@
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.IsCommited', 'OITM.ItemName', 'ITM1.Price', 'ITM1.ItemCode'}</t>
+          <t>{'OITM.ItemCode', 'ITM1.ItemCode', 'ITM1.Price', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T466" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>{'OITM', 'ITM2'}</t>
+          <t>{'ITM2', 'OITM'}</t>
         </is>
       </c>
       <c r="Q467" t="inlineStr">
@@ -37810,7 +37810,7 @@
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t>{'OITM.LastPurPrc', 'OITM.ItemCode', 'ITM2.VendorCode', 'OITM.ItemName', 'ITM2.ItemCode', 'OITM.Consig'}</t>
+          <t>{'OITM.LastPurPrc', 'OITM.ItemCode', 'OITM.ItemName', 'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.Consig'}</t>
         </is>
       </c>
       <c r="T467" t="inlineStr">
@@ -37890,7 +37890,7 @@
       </c>
       <c r="S468" t="inlineStr">
         <is>
-          <t>{'ITM4.Length1', 'ITM4.ItemCode', 'ITM4.Width1', 'OITM.ItemCode', 'ITM4.Height1', 'OITM.ItemName', 'ITM4.Volume', 'ITM4.QtyPerPack'}</t>
+          <t>{'ITM4.Volume', 'ITM4.Length1', 'ITM4.Width1', 'ITM4.Height1', 'ITM4.QtyPerPack', 'OITM.ItemName', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="T468" t="inlineStr">
@@ -37970,7 +37970,7 @@
       </c>
       <c r="S469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainDays', 'ITM7.DprArea', 'ITM7.RemainLife', 'ITM7.UsefulLife'}</t>
+          <t>{'ITM7.DprArea', 'ITM7.UsefulLife', 'ITM7.RemainLife', 'ITM7.RemainDays'}</t>
         </is>
       </c>
       <c r="T469" t="inlineStr">
@@ -38050,7 +38050,7 @@
       </c>
       <c r="S470" t="inlineStr">
         <is>
-          <t>{'OPKG.PkgType', 'OPKG.Volume'}</t>
+          <t>{'OPKG.Volume', 'OPKG.PkgType'}</t>
         </is>
       </c>
       <c r="T470" t="inlineStr">
@@ -38130,7 +38130,7 @@
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OBCD.BcdCode', 'OITM.ItemName', 'OBCD.UomEntry', 'OBCD.ItemCode'}</t>
+          <t>{'OBCD.UomEntry', 'OITM.ItemCode', 'OBCD.ItemCode', 'OBCD.BcdCode', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T471" t="inlineStr">
@@ -38210,7 +38210,7 @@
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t>{'OBFC.DispName', 'OBFC.DataSource', 'OBFC.UpdateDate', 'OBFC.Activated'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DispName', 'OBFC.DataSource', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="T472" t="inlineStr">
@@ -38290,7 +38290,7 @@
       </c>
       <c r="S473" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="T473" t="inlineStr">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>{'OITM', 'ITM4', 'OITB'}</t>
+          <t>{'OITM', 'OITB', 'ITM4'}</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr">
@@ -38370,7 +38370,7 @@
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItemCode', 'ITM4.ItemCode', 'OITB.ItmsGrpCod', 'ITM4.Volume'}</t>
+          <t>{'OITB.ItmsGrpCod', 'ITM4.Volume', 'OITM.ItemCode', 'ITM4.ItemCode', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
         </is>
       </c>
       <c r="T474" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="P475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="Q475" t="inlineStr">
@@ -38450,7 +38450,7 @@
       </c>
       <c r="S475" t="inlineStr">
         <is>
-          <t>{'OECM.Descr', 'ECM1.ParamPrms', 'OECM.Code', 'ECM1.ParamName', 'ECM1.Code'}</t>
+          <t>{'ECM1.ParamPrms', 'OECM.Descr', 'ECM1.Code', 'OECM.Code', 'ECM1.ParamName'}</t>
         </is>
       </c>
       <c r="T475" t="inlineStr">
@@ -38530,7 +38530,7 @@
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>{'OECM.Descr', 'OECM.Code', 'ECM4.FieldXPath', 'ECM4.Code', 'ECM4.ObjXPath'}</t>
+          <t>{'ECM4.FieldXPath', 'OECM.Descr', 'OECM.Code', 'ECM4.ObjXPath', 'ECM4.Code'}</t>
         </is>
       </c>
       <c r="T476" t="inlineStr">
@@ -38690,7 +38690,7 @@
       </c>
       <c r="S478" t="inlineStr">
         <is>
-          <t>{'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc', 'OQAG.UpdateDate'}</t>
+          <t>{'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.LogInstanc', 'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN'}</t>
         </is>
       </c>
       <c r="T478" t="inlineStr">
@@ -38755,7 +38755,7 @@
       </c>
       <c r="P479" t="inlineStr">
         <is>
-          <t>{'RDOC'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="Q479" t="inlineStr">
@@ -38770,7 +38770,7 @@
       </c>
       <c r="S479" t="inlineStr">
         <is>
-          <t>{'RDOC.GridSize', 'RDOC.Width'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="T479" t="inlineStr">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="S480" t="inlineStr">
         <is>
-          <t>{'RDOC.TypeCode', 'RDOC.EmailFont', 'RDOC.ScreenFont'}</t>
+          <t>{'RDOC.ScreenFont', 'RDOC.TypeCode', 'RDOC.EmailFont'}</t>
         </is>
       </c>
       <c r="T480" t="inlineStr">
@@ -38930,7 +38930,7 @@
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RTYP.DEFLT_REP', 'RTYP.NAME', 'RTYP.CODE'}</t>
+          <t>{'RTYP.DEFLT_REP', 'RDOC.DocCode', 'RTYP.NAME', 'RTYP.CODE'}</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>{'RITM', 'RDOC'}</t>
+          <t>{'RDOC', 'RITM'}</t>
         </is>
       </c>
       <c r="Q482" t="inlineStr">
@@ -39010,7 +39010,7 @@
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RITM.DocCode', 'RDOC.TypeCode', 'RDOC.DocName'}</t>
+          <t>{'RDOC.DocCode', 'RITM.DocCode', 'RDOC.DocName', 'RDOC.TypeCode'}</t>
         </is>
       </c>
       <c r="T482" t="inlineStr">
@@ -39090,7 +39090,7 @@
       </c>
       <c r="S483" t="inlineStr">
         <is>
-          <t>{'RDOC.NumRepArs', 'RDOC.ExtOnErr', 'RDOC.SwpInEmail'}</t>
+          <t>{'RDOC.ExtOnErr', 'RDOC.NumRepArs', 'RDOC.SwpInEmail'}</t>
         </is>
       </c>
       <c r="T483" t="inlineStr">
@@ -39170,7 +39170,7 @@
       </c>
       <c r="S484" t="inlineStr">
         <is>
-          <t>{'RITM.BGBlue', 'RITM.FGGreen', 'RITM.BrdrRed', 'RITM.BrdrBlue', 'RITM.BGRed', 'RITM.Height', 'RITM.BGGreen', 'RITM.MrkrGreen', 'RITM.BrdrGreen', 'RITM.MrkrRed', 'RITM.FGRed', 'RITM.FGBlue', 'RITM.MrkrBlue'}</t>
+          <t>{'RITM.FGGreen', 'RITM.BGRed', 'RITM.MrkrBlue', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.Height', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.MrkrGreen', 'RITM.BrdrRed', 'RITM.MrkrRed', 'RITM.BrdrGreen', 'RITM.BrdrBlue'}</t>
         </is>
       </c>
       <c r="T484" t="inlineStr">
@@ -39250,7 +39250,7 @@
       </c>
       <c r="S485" t="inlineStr">
         <is>
-          <t>{'OOPR.MaxSumLoc', 'OOPR.CardGroup'}</t>
+          <t>{'OOPR.CardGroup', 'OOPR.MaxSumLoc'}</t>
         </is>
       </c>
       <c r="T485" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="P487" t="inlineStr">
         <is>
-          <t>{'OPR1', 'OOPR'}</t>
+          <t>{'OOPR', 'OPR1'}</t>
         </is>
       </c>
       <c r="Q487" t="inlineStr">
@@ -39410,7 +39410,7 @@
       </c>
       <c r="S487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OPR1.ClosePrcnt', 'OOPR.OpprId', 'OOPR.CardCode'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpprId', 'OOPR.CardCode', 'OOPR.OpprId'}</t>
         </is>
       </c>
       <c r="T487" t="inlineStr">
@@ -39490,7 +39490,7 @@
       </c>
       <c r="S488" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.WtSumSys', 'OPR1.WtSumLoc'}</t>
+          <t>{'OPR1.WtSumLoc', 'OPR1.CloseDate', 'OPR1.WtSumSys'}</t>
         </is>
       </c>
       <c r="T488" t="inlineStr">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="S489" t="inlineStr">
         <is>
-          <t>{'OPRC.PrcCode', 'OPRC.Balance', 'OPRC.DataSource', 'OPRC.PrcName', 'OPRC.ValidFrom', 'OPRC.Active'}</t>
+          <t>{'OPRC.PrcCode', 'OPRC.PrcName', 'OPRC.Balance', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.DataSource'}</t>
         </is>
       </c>
       <c r="T489" t="inlineStr">
@@ -39650,7 +39650,7 @@
       </c>
       <c r="S490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealProfS', 'OOPR.CloPrcnt', 'OOPR.RealSumSys', 'OOPR.CardName', 'OOPR.RealSumLoc', 'OOPR.RealProfL'}</t>
+          <t>{'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.CardName', 'OOPR.RealSumSys', 'OOPR.RealProfS', 'OOPR.CloPrcnt'}</t>
         </is>
       </c>
       <c r="T490" t="inlineStr">
@@ -39810,7 +39810,7 @@
       </c>
       <c r="S492" t="inlineStr">
         <is>
-          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
+          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
         </is>
       </c>
       <c r="T492" t="inlineStr">
@@ -40290,7 +40290,7 @@
       </c>
       <c r="S498" t="inlineStr">
         <is>
-          <t>{'OINS.itemCode', 'OINS.itemName'}</t>
+          <t>{'OINS.itemName', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="T498" t="inlineStr">
@@ -40370,7 +40370,7 @@
       </c>
       <c r="S499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.manager', 'OQUE.descript'}</t>
+          <t>{'OQUE.descript', 'OQUE.email', 'OQUE.manager'}</t>
         </is>
       </c>
       <c r="T499" t="inlineStr">
@@ -40450,7 +40450,7 @@
       </c>
       <c r="S500" t="inlineStr">
         <is>
-          <t>{'OSCL.priority', 'OSCL.customer', 'OSCL.custmrName'}</t>
+          <t>{'OSCL.priority', 'OSCL.custmrName', 'OSCL.customer'}</t>
         </is>
       </c>
       <c r="T500" t="inlineStr">
@@ -40515,7 +40515,7 @@
       </c>
       <c r="P501" t="inlineStr">
         <is>
-          <t>{'OSCO', 'OSCL'}</t>
+          <t>{'OSCL', 'OSCO'}</t>
         </is>
       </c>
       <c r="Q501" t="inlineStr">
@@ -40530,7 +40530,7 @@
       </c>
       <c r="S501" t="inlineStr">
         <is>
-          <t>{'OSCO.originID', 'OSCL.origin', 'OSCL.respOnDate', 'OSCL.resolOnDat', 'OSCL.AssignDate', 'OSCO.Name'}</t>
+          <t>{'OSCL.resolOnDat', 'OSCO.Name', 'OSCL.origin', 'OSCO.originID', 'OSCL.respOnDate', 'OSCL.AssignDate'}</t>
         </is>
       </c>
       <c r="T501" t="inlineStr">
@@ -40610,7 +40610,7 @@
       </c>
       <c r="S502" t="inlineStr">
         <is>
-          <t>{'OSCL.BPShipAddr', 'OSCL.BPBillAddr', 'OSCL.custmrName', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPBillAddr', 'OSCL.BPShipAddr', 'OSCL.custmrName', 'OSCL.BPE_Mail'}</t>
         </is>
       </c>
       <c r="T502" t="inlineStr">
@@ -40690,7 +40690,7 @@
       </c>
       <c r="S503" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrCode', 'OSCL.customer', 'OCTR.CstmrName'}</t>
+          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
         </is>
       </c>
       <c r="T503" t="inlineStr">
